--- a/NNX.Tests/NNXTests.xlsx
+++ b/NNX.Tests/NNXTests.xlsx
@@ -14,11 +14,10 @@
   <sheets>
     <sheet name="Basic objects" sheetId="1" r:id="rId1"/>
     <sheet name="FeedForward" sheetId="2" r:id="rId2"/>
-    <sheet name="Train" sheetId="3" r:id="rId3"/>
-    <sheet name="Train - Quant Tests" sheetId="4" r:id="rId4"/>
+    <sheet name="Iris Flower" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Train!$B$5:$I$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Iris Flower'!$B$5:$I$155</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>NumHiddenNodes</t>
   </si>
@@ -166,13 +165,24 @@
   <si>
     <t>Testing set correct %</t>
   </si>
+  <si>
+    <t>Cross Ent Er</t>
+  </si>
+  <si>
+    <t>Training set Cross Ent Err</t>
+  </si>
+  <si>
+    <t>Testing set Cross Ent Err</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -288,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -328,6 +338,11 @@
     <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T155"/>
+  <dimension ref="B2:U155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,15 +1140,17 @@
     <col min="11" max="11" width="2.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
@@ -1145,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1153,7 +1170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
@@ -1205,8 +1222,11 @@
       <c r="T5" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>6.1</v>
       </c>
@@ -1243,13 +1263,13 @@
       </c>
       <c r="O6" s="17">
         <f t="array" ref="O6:Q6">_xll.nnFeedForward($M$16,B6:E6)</f>
-        <v>7.4562367510950571E-7</v>
+        <v>4.0240669228246122E-7</v>
       </c>
       <c r="P6" s="17">
-        <v>1.7346319219062045E-2</v>
+        <v>4.7781420739621836E-3</v>
       </c>
       <c r="Q6" s="17">
-        <v>0.98265293515726282</v>
+        <v>0.99522145551934549</v>
       </c>
       <c r="R6" s="12">
         <f>IF(Q6&gt;MAX(O6:P6),3,IF(P6&gt;O6,2,1))</f>
@@ -1263,8 +1283,12 @@
         <f>S6-R6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="24">
+        <f>_xll.nnGetCrossEntropyError(F6:H6,O6:Q6)</f>
+        <v>4.7899982270562446E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>6.5</v>
       </c>
@@ -1301,13 +1325,13 @@
       </c>
       <c r="O7" s="17">
         <f t="array" ref="O7:Q7">_xll.nnFeedForward($M$16,B7:E7)</f>
-        <v>1.272956321068746E-6</v>
+        <v>4.8983970900625957E-7</v>
       </c>
       <c r="P7" s="17">
-        <v>3.2160860110869535E-2</v>
+        <v>6.1847701277765879E-3</v>
       </c>
       <c r="Q7" s="17">
-        <v>0.96783786693280938</v>
+        <v>0.99381474003251447</v>
       </c>
       <c r="R7" s="12">
         <f t="shared" ref="R7:R19" si="0">IF(Q7&gt;MAX(O7:P7),3,IF(P7&gt;O7,2,1))</f>
@@ -1321,8 +1345,12 @@
         <f t="shared" ref="T7:T19" si="2">S7-R7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="24">
+        <f>_xll.nnGetCrossEntropyError(F7:H7,O7:Q7)</f>
+        <v>6.2044679330519551E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>6.3</v>
       </c>
@@ -1359,13 +1387,13 @@
       </c>
       <c r="O8" s="17">
         <f t="array" ref="O8:Q8">_xll.nnFeedForward($M$16,B8:E8)</f>
-        <v>7.8235345898057326E-7</v>
+        <v>4.1562478654757293E-7</v>
       </c>
       <c r="P8" s="17">
-        <v>1.8592884386617711E-2</v>
+        <v>4.8913219898911783E-3</v>
       </c>
       <c r="Q8" s="17">
-        <v>0.98140633325992332</v>
+        <v>0.99510826238532235</v>
       </c>
       <c r="R8" s="12">
         <f t="shared" si="0"/>
@@ -1379,8 +1407,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="24">
+        <f>_xll.nnGetCrossEntropyError(F8:H8,O8:Q8)</f>
+        <v>4.9037413251237739E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <v>6.5</v>
       </c>
@@ -1413,17 +1445,17 @@
         <v>35</v>
       </c>
       <c r="M9" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O9" s="17">
         <f t="array" ref="O9:Q9">_xll.nnFeedForward($M$16,B9:E9)</f>
-        <v>9.4274512753212759E-5</v>
+        <v>3.9731911407041698E-5</v>
       </c>
       <c r="P9" s="17">
-        <v>0.98854124739260041</v>
+        <v>0.94373440118399388</v>
       </c>
       <c r="Q9" s="17">
-        <v>1.1364478094646337E-2</v>
+        <v>5.6225866904599131E-2</v>
       </c>
       <c r="R9" s="12">
         <f t="shared" si="0"/>
@@ -1437,8 +1469,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="24">
+        <f>_xll.nnGetCrossEntropyError(F9:H9,O9:Q9)</f>
+        <v>5.7910507102261984E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <v>5.7</v>
       </c>
@@ -1475,13 +1511,13 @@
       </c>
       <c r="O10" s="17">
         <f t="array" ref="O10:Q10">_xll.nnFeedForward($M$16,B10:E10)</f>
-        <v>0.99952034944894219</v>
+        <v>0.99921643268818683</v>
       </c>
       <c r="P10" s="17">
-        <v>4.7682114416011618E-4</v>
+        <v>7.8104560330175693E-4</v>
       </c>
       <c r="Q10" s="17">
-        <v>2.8294068976513619E-6</v>
+        <v>2.5217085114122899E-6</v>
       </c>
       <c r="R10" s="12">
         <f t="shared" si="0"/>
@@ -1495,8 +1531,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="24">
+        <f>_xll.nnGetCrossEntropyError(F10:H10,O10:Q10)</f>
+        <v>7.8387446113783749E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <v>5.8</v>
       </c>
@@ -1527,13 +1567,13 @@
       </c>
       <c r="O11" s="17">
         <f t="array" ref="O11:Q11">_xll.nnFeedForward($M$16,B11:E11)</f>
-        <v>3.9733388504993041E-4</v>
+        <v>6.1030209429624991E-4</v>
       </c>
       <c r="P11" s="17">
-        <v>0.9967075241462604</v>
+        <v>0.99865864187279008</v>
       </c>
       <c r="Q11" s="17">
-        <v>2.8951419686896059E-3</v>
+        <v>7.3105603291385469E-4</v>
       </c>
       <c r="R11" s="12">
         <f t="shared" si="0"/>
@@ -1547,8 +1587,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="24">
+        <f>_xll.nnGetCrossEntropyError(F11:H11,O11:Q11)</f>
+        <v>1.3422585533086194E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <v>5</v>
       </c>
@@ -1585,13 +1629,13 @@
       </c>
       <c r="O12" s="17">
         <f t="array" ref="O12:Q12">_xll.nnFeedForward($M$16,B12:E12)</f>
-        <v>0.99949238291898834</v>
+        <v>0.99917882465648011</v>
       </c>
       <c r="P12" s="17">
-        <v>5.0466607082077012E-4</v>
+        <v>8.1856669884342341E-4</v>
       </c>
       <c r="Q12" s="17">
-        <v>2.9510101909091494E-6</v>
+        <v>2.6086446766039605E-6</v>
       </c>
       <c r="R12" s="12">
         <f t="shared" si="0"/>
@@ -1605,8 +1649,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="24">
+        <f>_xll.nnGetCrossEntropyError(F12:H12,O12:Q12)</f>
+        <v>8.2151269268681128E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>6.2</v>
       </c>
@@ -1644,13 +1692,13 @@
       </c>
       <c r="O13" s="17">
         <f t="array" ref="O13:Q13">_xll.nnFeedForward($M$16,B13:E13)</f>
-        <v>5.6784323336430983E-7</v>
+        <v>3.4847676963558731E-7</v>
       </c>
       <c r="P13" s="17">
-        <v>1.0424531480165007E-2</v>
+        <v>3.9482115705926938E-3</v>
       </c>
       <c r="Q13" s="17">
-        <v>0.9895749006766017</v>
+        <v>0.99605143995263767</v>
       </c>
       <c r="R13" s="12">
         <f t="shared" si="0"/>
@@ -1664,8 +1712,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U13" s="24">
+        <f>_xll.nnGetCrossEntropyError(F13:H13,O13:Q13)</f>
+        <v>3.9563761923825397E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <v>5.2</v>
       </c>
@@ -1696,13 +1748,13 @@
       </c>
       <c r="O14" s="17">
         <f t="array" ref="O14:Q14">_xll.nnFeedForward($M$16,B14:E14)</f>
-        <v>2.7492877656533539E-4</v>
+        <v>8.3344392689444215E-5</v>
       </c>
       <c r="P14" s="17">
-        <v>0.9914481528606699</v>
+        <v>0.97822097612479186</v>
       </c>
       <c r="Q14" s="17">
-        <v>8.2769183627646632E-3</v>
+        <v>2.1695679482518604E-2</v>
       </c>
       <c r="R14" s="12">
         <f t="shared" si="0"/>
@@ -1716,8 +1768,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="24">
+        <f>_xll.nnGetCrossEntropyError(F14:H14,O14:Q14)</f>
+        <v>2.2019687511624347E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>5</v>
       </c>
@@ -1754,13 +1810,13 @@
       </c>
       <c r="O15" s="17">
         <f t="array" ref="O15:Q15">_xll.nnFeedForward($M$16,B15:E15)</f>
-        <v>0.99935568685714893</v>
+        <v>0.99900306964141083</v>
       </c>
       <c r="P15" s="17">
-        <v>6.4077921791134409E-4</v>
+        <v>9.9392878618682727E-4</v>
       </c>
       <c r="Q15" s="17">
-        <v>3.5339249397351032E-6</v>
+        <v>3.0015724023982209E-6</v>
       </c>
       <c r="R15" s="12">
         <f t="shared" si="0"/>
@@ -1774,8 +1830,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="24">
+        <f>_xll.nnGetCrossEntropyError(F15:H15,O15:Q15)</f>
+        <v>9.974276241793503E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>6.8</v>
       </c>
@@ -1813,13 +1873,13 @@
       </c>
       <c r="O16" s="17">
         <f t="array" ref="O16:Q16">_xll.nnFeedForward($M$16,B16:E16)</f>
-        <v>8.8851460694277737E-5</v>
+        <v>5.2871287728069095E-5</v>
       </c>
       <c r="P16" s="17">
-        <v>0.99016807872535462</v>
+        <v>0.96868893933909384</v>
       </c>
       <c r="Q16" s="17">
-        <v>9.7430698139510455E-3</v>
+        <v>3.1258189373178064E-2</v>
       </c>
       <c r="R16" s="12">
         <f t="shared" si="0"/>
@@ -1833,8 +1893,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="24">
+        <f>_xll.nnGetCrossEntropyError(F16:H16,O16:Q16)</f>
+        <v>3.1811730660721967E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>5.0999999999999996</v>
       </c>
@@ -1865,13 +1929,13 @@
       </c>
       <c r="O17" s="17">
         <f t="array" ref="O17:Q17">_xll.nnFeedForward($M$16,B17:E17)</f>
-        <v>0.99934381903962632</v>
+        <v>0.99899417164959359</v>
       </c>
       <c r="P17" s="17">
-        <v>6.5260982742514008E-4</v>
+        <v>1.0028076597645974E-3</v>
       </c>
       <c r="Q17" s="17">
-        <v>3.5711329484425176E-6</v>
+        <v>3.0206906418152844E-6</v>
       </c>
       <c r="R17" s="12">
         <f t="shared" si="0"/>
@@ -1885,8 +1949,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="24">
+        <f>_xll.nnGetCrossEntropyError(F17:H17,O17:Q17)</f>
+        <v>1.0063345351934581E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>5.7</v>
       </c>
@@ -1917,13 +1985,13 @@
       </c>
       <c r="O18" s="17">
         <f t="array" ref="O18:Q18">_xll.nnFeedForward($M$16,B18:E18)</f>
-        <v>7.9175281172530129E-4</v>
+        <v>2.9085543970576431E-3</v>
       </c>
       <c r="P18" s="17">
-        <v>0.99734985237314377</v>
+        <v>0.99688638562869292</v>
       </c>
       <c r="Q18" s="17">
-        <v>1.858394815130925E-3</v>
+        <v>2.0505997424946892E-4</v>
       </c>
       <c r="R18" s="12">
         <f t="shared" si="0"/>
@@ -1937,8 +2005,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="24">
+        <f>_xll.nnGetCrossEntropyError(F18:H18,O18:Q18)</f>
+        <v>3.1184717538315287E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>4.9000000000000004</v>
       </c>
@@ -1972,17 +2044,17 @@
       </c>
       <c r="M19" s="22">
         <f>1-COUNTIF(T35:T155,"&lt;&gt;0")/COUNT(T35:T155)</f>
-        <v>0.97520661157024791</v>
+        <v>0.95041322314049581</v>
       </c>
       <c r="O19" s="17">
         <f t="array" ref="O19:Q19">_xll.nnFeedForward($M$16,B19:E19)</f>
-        <v>0.99939717450616128</v>
+        <v>0.99904326176880509</v>
       </c>
       <c r="P19" s="17">
-        <v>5.994708565551835E-4</v>
+        <v>9.5382485911841219E-4</v>
       </c>
       <c r="Q19" s="17">
-        <v>3.3546372835428103E-6</v>
+        <v>2.9133720765117382E-6</v>
       </c>
       <c r="R19" s="12">
         <f t="shared" si="0"/>
@@ -1996,8 +2068,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="24">
+        <f>_xll.nnGetCrossEntropyError(F19:H19,O19:Q19)</f>
+        <v>9.5719619734220595E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <v>4.8</v>
       </c>
@@ -2027,21 +2103,21 @@
         <v>1</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" s="22">
-        <f>1-COUNTIF(T6:T34,"&lt;&gt;0")/COUNT(T6:T34)</f>
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="M20" s="23">
+        <f>AVERAGE(U35:U155)</f>
+        <v>0.13527602662184463</v>
       </c>
       <c r="O20" s="17">
         <f t="array" ref="O20:Q20">_xll.nnFeedForward($M$16,B20:E20)</f>
-        <v>0.9994096455856365</v>
+        <v>0.99906055422582274</v>
       </c>
       <c r="P20" s="17">
-        <v>5.8705332911846288E-4</v>
+        <v>9.3657059938076275E-4</v>
       </c>
       <c r="Q20" s="17">
-        <v>3.3010852450495804E-6</v>
+        <v>2.8751747963992321E-6</v>
       </c>
       <c r="R20" s="12">
         <f t="shared" ref="R20:R33" si="3">IF(Q20&gt;MAX(O20:P20),3,IF(P20&gt;O20,2,1))</f>
@@ -2055,8 +2131,12 @@
         <f t="shared" ref="T20:T33" si="5">S20-R20</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="24">
+        <f>_xll.nnGetCrossEntropyError(F20:H20,O20:Q20)</f>
+        <v>9.398873299253527E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <v>4.4000000000000004</v>
       </c>
@@ -2085,15 +2165,22 @@
         <f>IF(COUNTA(J$5:J20) &lt; COUNT($I$6:$I$155)*$C$3, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="L21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="22">
+        <f>1-COUNTIF(T6:T34,"&lt;&gt;0")/COUNT(T6:T34)</f>
+        <v>1</v>
+      </c>
       <c r="O21" s="17">
         <f t="array" ref="O21:Q21">_xll.nnFeedForward($M$16,B21:E21)</f>
-        <v>0.99944527264410388</v>
+        <v>0.99911443516969511</v>
       </c>
       <c r="P21" s="17">
-        <v>5.5157422553990423E-4</v>
+        <v>8.8280977845428652E-4</v>
       </c>
       <c r="Q21" s="17">
-        <v>3.1531303561416522E-6</v>
+        <v>2.7550518507207506E-6</v>
       </c>
       <c r="R21" s="12">
         <f t="shared" si="3"/>
@@ -2107,8 +2194,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="24">
+        <f>_xll.nnGetCrossEntropyError(F21:H21,O21:Q21)</f>
+        <v>8.8595717448713008E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <v>7.2</v>
       </c>
@@ -2137,15 +2228,22 @@
         <f>IF(COUNTA(J$5:J21) &lt; COUNT($I$6:$I$155)*$C$3, 1, 0)</f>
         <v>1</v>
       </c>
+      <c r="L22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="23">
+        <f>AVERAGE(U6:U34)</f>
+        <v>8.0829440298062789E-3</v>
+      </c>
       <c r="O22" s="17">
         <f t="array" ref="O22:Q22">_xll.nnFeedForward($M$16,B22:E22)</f>
-        <v>1.2936967055685099E-6</v>
+        <v>5.1923555287942989E-7</v>
       </c>
       <c r="P22" s="17">
-        <v>3.6006973519197592E-2</v>
+        <v>7.3928129358381087E-3</v>
       </c>
       <c r="Q22" s="17">
-        <v>0.96399173278409689</v>
+        <v>0.99260666782860907</v>
       </c>
       <c r="R22" s="12">
         <f t="shared" si="3"/>
@@ -2159,8 +2257,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="24">
+        <f>_xll.nnGetCrossEntropyError(F22:H22,O22:Q22)</f>
+        <v>7.4207983129660048E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <v>5.6</v>
       </c>
@@ -2191,13 +2293,13 @@
       </c>
       <c r="O23" s="17">
         <f t="array" ref="O23:Q23">_xll.nnFeedForward($M$16,B23:E23)</f>
-        <v>2.1040687789210063E-4</v>
+        <v>7.6893857628027742E-5</v>
       </c>
       <c r="P23" s="17">
-        <v>0.99292835762008891</v>
+        <v>0.98427424399410379</v>
       </c>
       <c r="Q23" s="17">
-        <v>6.8612355020191192E-3</v>
+        <v>1.5648862148268244E-2</v>
       </c>
       <c r="R23" s="12">
         <f t="shared" si="3"/>
@@ -2211,8 +2313,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="24">
+        <f>_xll.nnGetCrossEntropyError(F23:H23,O23:Q23)</f>
+        <v>1.5850717514378235E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <v>6.7</v>
       </c>
@@ -2243,13 +2349,13 @@
       </c>
       <c r="O24" s="17">
         <f t="array" ref="O24:Q24">_xll.nnFeedForward($M$16,B24:E24)</f>
-        <v>2.1644038885525269E-4</v>
+        <v>9.1381907008202388E-5</v>
       </c>
       <c r="P24" s="17">
-        <v>0.99488230297663449</v>
+        <v>0.99326017395298138</v>
       </c>
       <c r="Q24" s="17">
-        <v>4.901256634510155E-3</v>
+        <v>6.6484441400103955E-3</v>
       </c>
       <c r="R24" s="12">
         <f t="shared" si="3"/>
@@ -2263,8 +2369,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="24">
+        <f>_xll.nnGetCrossEntropyError(F24:H24,O24:Q24)</f>
+        <v>6.7626412460238833E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <v>4.7</v>
       </c>
@@ -2295,13 +2405,13 @@
       </c>
       <c r="O25" s="17">
         <f t="array" ref="O25:Q25">_xll.nnFeedForward($M$16,B25:E25)</f>
-        <v>0.99945943820804961</v>
+        <v>0.99913240639961032</v>
       </c>
       <c r="P25" s="17">
-        <v>5.374687732271643E-4</v>
+        <v>8.6487912852159022E-4</v>
       </c>
       <c r="Q25" s="17">
-        <v>3.0930187232474045E-6</v>
+        <v>2.7144718681097514E-6</v>
       </c>
       <c r="R25" s="12">
         <f t="shared" si="3"/>
@@ -2315,8 +2425,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="24">
+        <f>_xll.nnGetCrossEntropyError(F25:H25,O25:Q25)</f>
+        <v>8.6797017754377496E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <v>5</v>
       </c>
@@ -2347,13 +2461,13 @@
       </c>
       <c r="O26" s="17">
         <f t="array" ref="O26:Q26">_xll.nnFeedForward($M$16,B26:E26)</f>
-        <v>1.9400851982928342E-4</v>
+        <v>2.3474389308393527E-4</v>
       </c>
       <c r="P26" s="17">
-        <v>0.9947403962091782</v>
+        <v>0.99700021484105916</v>
       </c>
       <c r="Q26" s="17">
-        <v>5.0655952709925721E-3</v>
+        <v>2.7650412658569001E-3</v>
       </c>
       <c r="R26" s="12">
         <f t="shared" si="3"/>
@@ -2367,8 +2481,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U26" s="24">
+        <f>_xll.nnGetCrossEntropyError(F26:H26,O26:Q26)</f>
+        <v>3.0042935328002114E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <v>5.5</v>
       </c>
@@ -2399,13 +2517,13 @@
       </c>
       <c r="O27" s="17">
         <f t="array" ref="O27:Q27">_xll.nnFeedForward($M$16,B27:E27)</f>
-        <v>1.6597407912417002E-4</v>
+        <v>7.4921765759330128E-5</v>
       </c>
       <c r="P27" s="17">
-        <v>0.99234192856782</v>
+        <v>0.98415330767603648</v>
       </c>
       <c r="Q27" s="17">
-        <v>7.492097353055829E-3</v>
+        <v>1.5771770558204189E-2</v>
       </c>
       <c r="R27" s="12">
         <f t="shared" si="3"/>
@@ -2419,8 +2537,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="24">
+        <f>_xll.nnGetCrossEntropyError(F27:H27,O27:Q27)</f>
+        <v>1.5973593581741614E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <v>7.4</v>
       </c>
@@ -2451,13 +2573,13 @@
       </c>
       <c r="O28" s="17">
         <f t="array" ref="O28:Q28">_xll.nnFeedForward($M$16,B28:E28)</f>
-        <v>5.9039007478270734E-7</v>
+        <v>3.6268656404195323E-7</v>
       </c>
       <c r="P28" s="17">
-        <v>1.2895242476160884E-2</v>
+        <v>4.1938726424318928E-3</v>
       </c>
       <c r="Q28" s="17">
-        <v>0.98710416713376437</v>
+        <v>0.99580576467100412</v>
       </c>
       <c r="R28" s="12">
         <f t="shared" si="3"/>
@@ -2471,8 +2593,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U28" s="24">
+        <f>_xll.nnGetCrossEntropyError(F28:H28,O28:Q28)</f>
+        <v>4.2030558060707768E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <v>5.7</v>
       </c>
@@ -2503,13 +2629,13 @@
       </c>
       <c r="O29" s="17">
         <f t="array" ref="O29:Q29">_xll.nnFeedForward($M$16,B29:E29)</f>
-        <v>4.0607977870589669E-4</v>
+        <v>3.9214336370688272E-4</v>
       </c>
       <c r="P29" s="17">
-        <v>0.99663310206924582</v>
+        <v>0.99856961391327448</v>
       </c>
       <c r="Q29" s="17">
-        <v>2.9608181520483414E-3</v>
+        <v>1.0382427230187724E-3</v>
       </c>
       <c r="R29" s="12">
         <f t="shared" si="3"/>
@@ -2523,8 +2649,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U29" s="24">
+        <f>_xll.nnGetCrossEntropyError(F29:H29,O29:Q29)</f>
+        <v>1.4314100654771913E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
         <v>4.3</v>
       </c>
@@ -2555,13 +2685,13 @@
       </c>
       <c r="O30" s="17">
         <f t="array" ref="O30:Q30">_xll.nnFeedForward($M$16,B30:E30)</f>
-        <v>0.99947242697950378</v>
+        <v>0.99914890947051749</v>
       </c>
       <c r="P30" s="17">
-        <v>5.2453561568983822E-4</v>
+        <v>8.4841347152140396E-4</v>
       </c>
       <c r="Q30" s="17">
-        <v>3.0374048062886398E-6</v>
+        <v>2.6770579609790478E-6</v>
       </c>
       <c r="R30" s="12">
         <f t="shared" si="3"/>
@@ -2575,8 +2705,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="24">
+        <f>_xll.nnGetCrossEntropyError(F30:H30,O30:Q30)</f>
+        <v>8.5145291265571374E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <v>5.6</v>
       </c>
@@ -2607,13 +2741,13 @@
       </c>
       <c r="O31" s="17">
         <f t="array" ref="O31:Q31">_xll.nnFeedForward($M$16,B31:E31)</f>
-        <v>3.990186942629676E-4</v>
+        <v>2.9470045109011817E-4</v>
       </c>
       <c r="P31" s="17">
-        <v>0.99643425977916034</v>
+        <v>0.99823785060617176</v>
       </c>
       <c r="Q31" s="17">
-        <v>3.1667215265766858E-3</v>
+        <v>1.4674489427381292E-3</v>
       </c>
       <c r="R31" s="12">
         <f t="shared" si="3"/>
@@ -2627,8 +2761,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U31" s="24">
+        <f>_xll.nnGetCrossEntropyError(F31:H31,O31:Q31)</f>
+        <v>1.7637038054100105E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <v>5.0999999999999996</v>
       </c>
@@ -2659,13 +2797,13 @@
       </c>
       <c r="O32" s="17">
         <f t="array" ref="O32:Q32">_xll.nnFeedForward($M$16,B32:E32)</f>
-        <v>0.99947967716352082</v>
+        <v>0.99916143650231393</v>
       </c>
       <c r="P32" s="17">
-        <v>5.1731627326243165E-4</v>
+        <v>8.3591502416980744E-4</v>
       </c>
       <c r="Q32" s="17">
-        <v>3.0065632167265829E-6</v>
+        <v>2.6484735162592541E-6</v>
       </c>
       <c r="R32" s="12">
         <f t="shared" si="3"/>
@@ -2679,8 +2817,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U32" s="24">
+        <f>_xll.nnGetCrossEntropyError(F32:H32,O32:Q32)</f>
+        <v>8.3891528873573712E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
         <v>4.9000000000000004</v>
       </c>
@@ -2711,13 +2853,13 @@
       </c>
       <c r="O33" s="17">
         <f t="array" ref="O33:Q33">_xll.nnFeedForward($M$16,B33:E33)</f>
-        <v>6.2881482425375329E-7</v>
+        <v>3.8336682201972791E-7</v>
       </c>
       <c r="P33" s="17">
-        <v>1.1500499114020898E-2</v>
+        <v>4.2495094772805071E-3</v>
       </c>
       <c r="Q33" s="17">
-        <v>0.98849887207115483</v>
+        <v>0.99575010715589751</v>
       </c>
       <c r="R33" s="12">
         <f t="shared" si="3"/>
@@ -2731,8 +2873,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U33" s="24">
+        <f>_xll.nnGetCrossEntropyError(F33:H33,O33:Q33)</f>
+        <v>4.2589493071353941E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
         <v>6.1</v>
       </c>
@@ -2763,13 +2909,13 @@
       </c>
       <c r="O34" s="19">
         <f t="array" ref="O34:Q34">_xll.nnFeedForward($M$16,B34:E34)</f>
-        <v>1.4779645567074409E-4</v>
+        <v>5.9061279068944192E-5</v>
       </c>
       <c r="P34" s="19">
-        <v>0.99143753707138804</v>
+        <v>0.97168029227530861</v>
       </c>
       <c r="Q34" s="19">
-        <v>8.4146664729410625E-3</v>
+        <v>2.8260646445622511E-2</v>
       </c>
       <c r="R34" s="20">
         <f t="shared" ref="R34:R97" si="6">IF(Q34&gt;MAX(O34:P34),3,IF(P34&gt;O34,2,1))</f>
@@ -2783,8 +2929,12 @@
         <f t="shared" ref="T34:T97" si="8">S34-R34</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U34" s="25">
+        <f>_xll.nnGetCrossEntropyError(F34:H34,O34:Q34)</f>
+        <v>2.8728446039128372E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
         <v>5</v>
       </c>
@@ -2815,13 +2965,13 @@
       </c>
       <c r="O35" s="17">
         <f t="array" ref="O35:Q35">_xll.nnFeedForward($M$16,B35:E35)</f>
-        <v>5.724159517979194E-4</v>
+        <v>1.2704094984650992E-3</v>
       </c>
       <c r="P35" s="17">
-        <v>0.99710642084558088</v>
+        <v>0.99831952278446323</v>
       </c>
       <c r="Q35" s="17">
-        <v>2.3211632026210729E-3</v>
+        <v>4.1006771707160453E-4</v>
       </c>
       <c r="R35" s="12">
         <f t="shared" si="6"/>
@@ -2835,8 +2985,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U35" s="24">
+        <f>_xll.nnGetCrossEntropyError(F35:H35,O35:Q35)</f>
+        <v>1.6818908012604468E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="12">
         <v>6.4</v>
       </c>
@@ -2867,13 +3021,13 @@
       </c>
       <c r="O36" s="17">
         <f t="array" ref="O36:Q36">_xll.nnFeedForward($M$16,B36:E36)</f>
-        <v>4.1493052713815179E-7</v>
+        <v>3.380675702802709E-7</v>
       </c>
       <c r="P36" s="17">
-        <v>7.642246811206903E-3</v>
+        <v>3.8474297674862329E-3</v>
       </c>
       <c r="Q36" s="17">
-        <v>0.992357338258266</v>
+        <v>0.99615223216494353</v>
       </c>
       <c r="R36" s="12">
         <f t="shared" si="6"/>
@@ -2887,8 +3041,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U36" s="24">
+        <f>_xll.nnGetCrossEntropyError(F36:H36,O36:Q36)</f>
+        <v>3.8551895378225475E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="12">
         <v>5.7</v>
       </c>
@@ -2919,13 +3077,13 @@
       </c>
       <c r="O37" s="17">
         <f t="array" ref="O37:Q37">_xll.nnFeedForward($M$16,B37:E37)</f>
-        <v>3.2873706191203345E-4</v>
+        <v>1.6736564805345749E-4</v>
       </c>
       <c r="P37" s="17">
-        <v>0.99583437061935187</v>
+        <v>0.99678540861345311</v>
       </c>
       <c r="Q37" s="17">
-        <v>3.836892318736062E-3</v>
+        <v>3.047225738493448E-3</v>
       </c>
       <c r="R37" s="12">
         <f t="shared" si="6"/>
@@ -2939,8 +3097,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="24">
+        <f>_xll.nnGetCrossEntropyError(F37:H37,O37:Q37)</f>
+        <v>3.2197692849675811E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
         <v>6.1</v>
       </c>
@@ -2971,13 +3133,13 @@
       </c>
       <c r="O38" s="17">
         <f t="array" ref="O38:Q38">_xll.nnFeedForward($M$16,B38:E38)</f>
-        <v>1.2217223215680212E-4</v>
+        <v>3.2847963033569461E-5</v>
       </c>
       <c r="P38" s="17">
-        <v>0.97943030289672828</v>
+        <v>0.82053391333023185</v>
       </c>
       <c r="Q38" s="17">
-        <v>2.044752487111497E-2</v>
+        <v>0.17943323870673464</v>
       </c>
       <c r="R38" s="12">
         <f t="shared" si="6"/>
@@ -2991,8 +3153,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="24">
+        <f>_xll.nnGetCrossEntropyError(F38:H38,O38:Q38)</f>
+        <v>0.19780003678911576</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <v>6.2</v>
       </c>
@@ -3023,17 +3189,17 @@
       </c>
       <c r="O39" s="17">
         <f t="array" ref="O39:Q39">_xll.nnFeedForward($M$16,B39:E39)</f>
-        <v>1.5817836032506314E-5</v>
+        <v>5.8744849594856967E-6</v>
       </c>
       <c r="P39" s="17">
-        <v>0.74780020355420662</v>
+        <v>0.29165767098733381</v>
       </c>
       <c r="Q39" s="17">
-        <v>0.25218397860976077</v>
+        <v>0.70833645452770677</v>
       </c>
       <c r="R39" s="12">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S39" s="11">
         <f t="shared" si="7"/>
@@ -3041,10 +3207,14 @@
       </c>
       <c r="T39" s="17">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U39" s="24">
+        <f>_xll.nnGetCrossEntropyError(F39:H39,O39:Q39)</f>
+        <v>1.232174524097408</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
         <v>4.8</v>
       </c>
@@ -3075,13 +3245,13 @@
       </c>
       <c r="O40" s="17">
         <f t="array" ref="O40:Q40">_xll.nnFeedForward($M$16,B40:E40)</f>
-        <v>0.99940346028531424</v>
+        <v>0.99906081264047653</v>
       </c>
       <c r="P40" s="17">
-        <v>5.9321340289077281E-4</v>
+        <v>9.363127497781029E-4</v>
       </c>
       <c r="Q40" s="17">
-        <v>3.3263117950708492E-6</v>
+        <v>2.8746097453716129E-6</v>
       </c>
       <c r="R40" s="12">
         <f t="shared" si="6"/>
@@ -3095,8 +3265,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U40" s="24">
+        <f>_xll.nnGetCrossEntropyError(F40:H40,O40:Q40)</f>
+        <v>9.3962867231018308E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
         <v>7.7</v>
       </c>
@@ -3127,13 +3301,13 @@
       </c>
       <c r="O41" s="17">
         <f t="array" ref="O41:Q41">_xll.nnFeedForward($M$16,B41:E41)</f>
-        <v>4.8360400209695057E-7</v>
+        <v>3.4584414750084226E-7</v>
       </c>
       <c r="P41" s="17">
-        <v>9.6133735093889144E-3</v>
+        <v>3.9443108738317703E-3</v>
       </c>
       <c r="Q41" s="17">
-        <v>0.99038614288660898</v>
+        <v>0.99605534328202072</v>
       </c>
       <c r="R41" s="12">
         <f t="shared" si="6"/>
@@ -3147,8 +3321,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U41" s="24">
+        <f>_xll.nnGetCrossEntropyError(F41:H41,O41:Q41)</f>
+        <v>3.9524573970489731E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="12">
         <v>5.9</v>
       </c>
@@ -3179,13 +3357,13 @@
       </c>
       <c r="O42" s="17">
         <f t="array" ref="O42:Q42">_xll.nnFeedForward($M$16,B42:E42)</f>
-        <v>3.0862838573083429E-4</v>
+        <v>1.1659136739299199E-4</v>
       </c>
       <c r="P42" s="17">
-        <v>0.9953455544556804</v>
+        <v>0.99475115938830705</v>
       </c>
       <c r="Q42" s="17">
-        <v>4.3458171585888617E-3</v>
+        <v>5.1322492442999225E-3</v>
       </c>
       <c r="R42" s="12">
         <f t="shared" si="6"/>
@@ -3199,8 +3377,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U42" s="24">
+        <f>_xll.nnGetCrossEntropyError(F42:H42,O42:Q42)</f>
+        <v>5.2626641685582821E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
         <v>6.6</v>
       </c>
@@ -3231,13 +3413,13 @@
       </c>
       <c r="O43" s="17">
         <f t="array" ref="O43:Q43">_xll.nnFeedForward($M$16,B43:E43)</f>
-        <v>3.1036368703931679E-4</v>
+        <v>3.1548805738108334E-4</v>
       </c>
       <c r="P43" s="17">
-        <v>0.99626838614648972</v>
+        <v>0.99832800291537693</v>
       </c>
       <c r="Q43" s="17">
-        <v>3.4212501664709636E-3</v>
+        <v>1.3565090272420501E-3</v>
       </c>
       <c r="R43" s="12">
         <f t="shared" si="6"/>
@@ -3251,8 +3433,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U43" s="24">
+        <f>_xll.nnGetCrossEntropyError(F43:H43,O43:Q43)</f>
+        <v>1.673396431768986E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
         <v>5.9</v>
       </c>
@@ -3283,13 +3469,13 @@
       </c>
       <c r="O44" s="17">
         <f t="array" ref="O44:Q44">_xll.nnFeedForward($M$16,B44:E44)</f>
-        <v>2.498859997723126E-5</v>
+        <v>2.1052574322679705E-6</v>
       </c>
       <c r="P44" s="17">
-        <v>0.19770871228770909</v>
+        <v>4.1885044212043872E-2</v>
       </c>
       <c r="Q44" s="17">
-        <v>0.80226629911231362</v>
+        <v>0.95811285053052386</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="6"/>
@@ -3303,8 +3489,12 @@
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U44" s="24">
+        <f>_xll.nnGetCrossEntropyError(F44:H44,O44:Q44)</f>
+        <v>3.172826455818992</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
         <v>5</v>
       </c>
@@ -3335,13 +3525,13 @@
       </c>
       <c r="O45" s="17">
         <f t="array" ref="O45:Q45">_xll.nnFeedForward($M$16,B45:E45)</f>
-        <v>0.99926914551560309</v>
+        <v>0.99886712023889779</v>
       </c>
       <c r="P45" s="17">
-        <v>7.2698497108590956E-4</v>
+        <v>1.1295878365332106E-3</v>
       </c>
       <c r="Q45" s="17">
-        <v>3.8695133109116101E-6</v>
+        <v>3.2919245689945746E-6</v>
       </c>
       <c r="R45" s="12">
         <f t="shared" si="6"/>
@@ -3355,8 +3545,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U45" s="24">
+        <f>_xll.nnGetCrossEntropyError(F45:H45,O45:Q45)</f>
+        <v>1.1335219544431456E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
         <v>6.4</v>
       </c>
@@ -3387,13 +3581,13 @@
       </c>
       <c r="O46" s="17">
         <f t="array" ref="O46:Q46">_xll.nnFeedForward($M$16,B46:E46)</f>
-        <v>3.2238956581098993E-4</v>
+        <v>1.5787507213325125E-4</v>
       </c>
       <c r="P46" s="17">
-        <v>0.99604921860632201</v>
+        <v>0.99707862178682582</v>
       </c>
       <c r="Q46" s="17">
-        <v>3.6283918278669485E-3</v>
+        <v>2.7635031410410162E-3</v>
       </c>
       <c r="R46" s="12">
         <f t="shared" si="6"/>
@@ -3407,8 +3601,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U46" s="24">
+        <f>_xll.nnGetCrossEntropyError(F46:H46,O46:Q46)</f>
+        <v>2.9256537675443296E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
         <v>5.8</v>
       </c>
@@ -3439,13 +3637,13 @@
       </c>
       <c r="O47" s="17">
         <f t="array" ref="O47:Q47">_xll.nnFeedForward($M$16,B47:E47)</f>
-        <v>0.99952496161389626</v>
+        <v>0.99922165935007223</v>
       </c>
       <c r="P47" s="17">
-        <v>4.7222929835262235E-4</v>
+        <v>7.7583111515346363E-4</v>
       </c>
       <c r="Q47" s="17">
-        <v>2.8090877512357992E-6</v>
+        <v>2.509534774273086E-6</v>
       </c>
       <c r="R47" s="12">
         <f t="shared" si="6"/>
@@ -3459,8 +3657,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U47" s="24">
+        <f>_xll.nnGetCrossEntropyError(F47:H47,O47:Q47)</f>
+        <v>7.7864371427983914E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
         <v>5.5</v>
       </c>
@@ -3491,13 +3693,13 @@
       </c>
       <c r="O48" s="17">
         <f t="array" ref="O48:Q48">_xll.nnFeedForward($M$16,B48:E48)</f>
-        <v>4.1328438231616081E-4</v>
+        <v>8.1791578266431975E-4</v>
       </c>
       <c r="P48" s="17">
-        <v>0.99679171542285261</v>
+        <v>0.99858933286594753</v>
       </c>
       <c r="Q48" s="17">
-        <v>2.7950001948311978E-3</v>
+        <v>5.927513513881333E-4</v>
       </c>
       <c r="R48" s="12">
         <f t="shared" si="6"/>
@@ -3511,8 +3713,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U48" s="24">
+        <f>_xll.nnGetCrossEntropyError(F48:H48,O48:Q48)</f>
+        <v>1.411663061659098E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
         <v>5.8</v>
       </c>
@@ -3543,13 +3749,13 @@
       </c>
       <c r="O49" s="17">
         <f t="array" ref="O49:Q49">_xll.nnFeedForward($M$16,B49:E49)</f>
-        <v>4.1406867814031458E-7</v>
+        <v>3.3725099842017186E-7</v>
       </c>
       <c r="P49" s="17">
-        <v>7.5869432029368866E-3</v>
+        <v>3.8407372144370557E-3</v>
       </c>
       <c r="Q49" s="17">
-        <v>0.99241264272838492</v>
+        <v>0.99615892553456453</v>
       </c>
       <c r="R49" s="12">
         <f t="shared" si="6"/>
@@ -3563,8 +3769,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U49" s="24">
+        <f>_xll.nnGetCrossEntropyError(F49:H49,O49:Q49)</f>
+        <v>3.8484703367628534E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
         <v>5.8</v>
       </c>
@@ -3595,13 +3805,13 @@
       </c>
       <c r="O50" s="17">
         <f t="array" ref="O50:Q50">_xll.nnFeedForward($M$16,B50:E50)</f>
-        <v>4.0737304489889275E-4</v>
+        <v>7.222176137670484E-4</v>
       </c>
       <c r="P50" s="17">
-        <v>0.99680104079100318</v>
+        <v>0.99865664002877041</v>
       </c>
       <c r="Q50" s="17">
-        <v>2.7915861640979913E-3</v>
+        <v>6.2114235746253276E-4</v>
       </c>
       <c r="R50" s="12">
         <f t="shared" si="6"/>
@@ -3615,8 +3825,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U50" s="24">
+        <f>_xll.nnGetCrossEntropyError(F50:H50,O50:Q50)</f>
+        <v>1.3442630881337432E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
         <v>6.6</v>
       </c>
@@ -3647,13 +3861,13 @@
       </c>
       <c r="O51" s="17">
         <f t="array" ref="O51:Q51">_xll.nnFeedForward($M$16,B51:E51)</f>
-        <v>2.2607621803133178E-4</v>
+        <v>1.7658150047768562E-4</v>
       </c>
       <c r="P51" s="17">
-        <v>0.99541810377192164</v>
+        <v>0.99695530217174599</v>
       </c>
       <c r="Q51" s="17">
-        <v>4.3558200100470481E-3</v>
+        <v>2.8681163277763416E-3</v>
       </c>
       <c r="R51" s="12">
         <f t="shared" si="6"/>
@@ -3667,8 +3881,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U51" s="24">
+        <f>_xll.nnGetCrossEntropyError(F51:H51,O51:Q51)</f>
+        <v>3.0493423505271473E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
         <v>7.7</v>
       </c>
@@ -3699,13 +3917,13 @@
       </c>
       <c r="O52" s="17">
         <f t="array" ref="O52:Q52">_xll.nnFeedForward($M$16,B52:E52)</f>
-        <v>4.1395113410377277E-7</v>
+        <v>3.3755892918351069E-7</v>
       </c>
       <c r="P52" s="17">
-        <v>7.6555814774052679E-3</v>
+        <v>3.8468577142893455E-3</v>
       </c>
       <c r="Q52" s="17">
-        <v>0.99234400457146055</v>
+        <v>0.99615280472678158</v>
       </c>
       <c r="R52" s="12">
         <f t="shared" si="6"/>
@@ -3719,8 +3937,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U52" s="24">
+        <f>_xll.nnGetCrossEntropyError(F52:H52,O52:Q52)</f>
+        <v>3.8546147645549503E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
         <v>5.0999999999999996</v>
       </c>
@@ -3751,13 +3973,13 @@
       </c>
       <c r="O53" s="17">
         <f t="array" ref="O53:Q53">_xll.nnFeedForward($M$16,B53:E53)</f>
-        <v>0.99948687374175782</v>
+        <v>0.99917078081795097</v>
       </c>
       <c r="P53" s="17">
-        <v>5.1015139140348983E-4</v>
+        <v>8.2659209130058928E-4</v>
       </c>
       <c r="Q53" s="17">
-        <v>2.9748668387437088E-6</v>
+        <v>2.6270907485773429E-6</v>
       </c>
       <c r="R53" s="12">
         <f t="shared" si="6"/>
@@ -3771,8 +3993,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U53" s="24">
+        <f>_xll.nnGetCrossEntropyError(F53:H53,O53:Q53)</f>
+        <v>8.2956317445151916E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
         <v>5.4</v>
       </c>
@@ -3803,13 +4029,13 @@
       </c>
       <c r="O54" s="17">
         <f t="array" ref="O54:Q54">_xll.nnFeedForward($M$16,B54:E54)</f>
-        <v>0.99951414589769794</v>
+        <v>0.99920791212403504</v>
       </c>
       <c r="P54" s="17">
-        <v>4.8299712618872319E-4</v>
+        <v>7.8954636832023598E-4</v>
       </c>
       <c r="Q54" s="17">
-        <v>2.8569761134200551E-6</v>
+        <v>2.5415076447746768E-6</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="6"/>
@@ -3823,8 +4049,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U54" s="24">
+        <f>_xll.nnGetCrossEntropyError(F54:H54,O54:Q54)</f>
+        <v>7.9240174331788411E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
         <v>5.4</v>
       </c>
@@ -3855,13 +4085,13 @@
       </c>
       <c r="O55" s="17">
         <f t="array" ref="O55:Q55">_xll.nnFeedForward($M$16,B55:E55)</f>
-        <v>0.99946795566110458</v>
+        <v>0.9991491742297236</v>
       </c>
       <c r="P55" s="17">
-        <v>5.2898793996408071E-4</v>
+        <v>8.4814936304519284E-4</v>
       </c>
       <c r="Q55" s="17">
-        <v>3.0563989313498789E-6</v>
+        <v>2.6764072313208294E-6</v>
       </c>
       <c r="R55" s="12">
         <f t="shared" si="6"/>
@@ -3875,8 +4105,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U55" s="24">
+        <f>_xll.nnGetCrossEntropyError(F55:H55,O55:Q55)</f>
+        <v>8.5118792795871171E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" s="12">
         <v>7.3</v>
       </c>
@@ -3907,13 +4141,13 @@
       </c>
       <c r="O56" s="17">
         <f t="array" ref="O56:Q56">_xll.nnFeedForward($M$16,B56:E56)</f>
-        <v>5.3377124458426179E-7</v>
+        <v>3.5345054855321602E-7</v>
       </c>
       <c r="P56" s="17">
-        <v>1.1106663669302403E-2</v>
+        <v>4.0556518683805953E-3</v>
       </c>
       <c r="Q56" s="17">
-        <v>0.988892802559453</v>
+        <v>0.99594399468107087</v>
       </c>
       <c r="R56" s="12">
         <f t="shared" si="6"/>
@@ -3927,8 +4161,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U56" s="24">
+        <f>_xll.nnGetCrossEntropyError(F56:H56,O56:Q56)</f>
+        <v>4.0642532184067132E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
         <v>6.5</v>
       </c>
@@ -3959,13 +4197,13 @@
       </c>
       <c r="O57" s="17">
         <f t="array" ref="O57:Q57">_xll.nnFeedForward($M$16,B57:E57)</f>
-        <v>1.1298189838681684E-6</v>
+        <v>4.5318417961481236E-7</v>
       </c>
       <c r="P57" s="17">
-        <v>2.8732119265410232E-2</v>
+        <v>5.6358269956697966E-3</v>
       </c>
       <c r="Q57" s="17">
-        <v>0.97126675091560588</v>
+        <v>0.99436371982015059</v>
       </c>
       <c r="R57" s="12">
         <f t="shared" si="6"/>
@@ -3979,8 +4217,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U57" s="24">
+        <f>_xll.nnGetCrossEntropyError(F57:H57,O57:Q57)</f>
+        <v>5.6522239442212633E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" s="12">
         <v>6.7</v>
       </c>
@@ -4011,13 +4253,13 @@
       </c>
       <c r="O58" s="17">
         <f t="array" ref="O58:Q58">_xll.nnFeedForward($M$16,B58:E58)</f>
-        <v>3.5940437931567589E-4</v>
+        <v>5.0057932065627922E-4</v>
       </c>
       <c r="P58" s="17">
-        <v>0.99658027328025767</v>
+        <v>0.99864435102732019</v>
       </c>
       <c r="Q58" s="17">
-        <v>3.0603223404266759E-3</v>
+        <v>8.5506965202353387E-4</v>
       </c>
       <c r="R58" s="12">
         <f t="shared" si="6"/>
@@ -4031,8 +4273,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U58" s="24">
+        <f>_xll.nnGetCrossEntropyError(F58:H58,O58:Q58)</f>
+        <v>1.3565686960570484E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" s="12">
         <v>6.7</v>
       </c>
@@ -4063,17 +4309,17 @@
       </c>
       <c r="O59" s="17">
         <f t="array" ref="O59:Q59">_xll.nnFeedForward($M$16,B59:E59)</f>
-        <v>4.1185259671953095E-5</v>
+        <v>6.164199962579461E-6</v>
       </c>
       <c r="P59" s="17">
-        <v>0.81477351470474202</v>
+        <v>0.24257746606586339</v>
       </c>
       <c r="Q59" s="17">
-        <v>0.18518530003558598</v>
+        <v>0.75741636973417403</v>
       </c>
       <c r="R59" s="12">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S59" s="11">
         <f t="shared" si="7"/>
@@ -4081,10 +4327,14 @@
       </c>
       <c r="T59" s="17">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U59" s="24">
+        <f>_xll.nnGetCrossEntropyError(F59:H59,O59:Q59)</f>
+        <v>1.4164341719228681</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
         <v>5.7</v>
       </c>
@@ -4115,13 +4365,13 @@
       </c>
       <c r="O60" s="17">
         <f t="array" ref="O60:Q60">_xll.nnFeedForward($M$16,B60:E60)</f>
-        <v>4.2554366418522476E-7</v>
+        <v>3.4337266599770197E-7</v>
       </c>
       <c r="P60" s="17">
-        <v>7.8462353956377049E-3</v>
+        <v>3.8840864338837156E-3</v>
       </c>
       <c r="Q60" s="17">
-        <v>0.99215333906069825</v>
+        <v>0.99611557019345021</v>
       </c>
       <c r="R60" s="12">
         <f t="shared" si="6"/>
@@ -4135,8 +4385,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U60" s="24">
+        <f>_xll.nnGetCrossEntropyError(F60:H60,O60:Q60)</f>
+        <v>3.8919937982277628E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B61" s="12">
         <v>6.4</v>
       </c>
@@ -4167,13 +4421,13 @@
       </c>
       <c r="O61" s="17">
         <f t="array" ref="O61:Q61">_xll.nnFeedForward($M$16,B61:E61)</f>
-        <v>1.2332376277328507E-6</v>
+        <v>4.5577875037130779E-7</v>
       </c>
       <c r="P61" s="17">
-        <v>3.0059909510592984E-2</v>
+        <v>5.6327368497787337E-3</v>
       </c>
       <c r="Q61" s="17">
-        <v>0.9699388572517792</v>
+        <v>0.99436680737147098</v>
       </c>
       <c r="R61" s="12">
         <f t="shared" si="6"/>
@@ -4187,8 +4441,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U61" s="24">
+        <f>_xll.nnGetCrossEntropyError(F61:H61,O61:Q61)</f>
+        <v>5.6491188967769989E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62" s="12">
         <v>6.4</v>
       </c>
@@ -4219,13 +4477,13 @@
       </c>
       <c r="O62" s="17">
         <f t="array" ref="O62:Q62">_xll.nnFeedForward($M$16,B62:E62)</f>
-        <v>5.8441545992574129E-7</v>
+        <v>3.538355042528982E-7</v>
       </c>
       <c r="P62" s="17">
-        <v>1.1640654943095317E-2</v>
+        <v>4.0166531051818643E-3</v>
       </c>
       <c r="Q62" s="17">
-        <v>0.98835876064144479</v>
+        <v>0.99598299305931393</v>
       </c>
       <c r="R62" s="12">
         <f t="shared" si="6"/>
@@ -4239,8 +4497,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U62" s="24">
+        <f>_xll.nnGetCrossEntropyError(F62:H62,O62:Q62)</f>
+        <v>4.025096784975102E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
         <v>6.1</v>
       </c>
@@ -4271,13 +4533,13 @@
       </c>
       <c r="O63" s="17">
         <f t="array" ref="O63:Q63">_xll.nnFeedForward($M$16,B63:E63)</f>
-        <v>4.8594325800250438E-6</v>
+        <v>1.1493755490825591E-6</v>
       </c>
       <c r="P63" s="17">
-        <v>8.8112601561103093E-2</v>
+        <v>2.1252668541613815E-2</v>
       </c>
       <c r="Q63" s="17">
-        <v>0.91188253900631688</v>
+        <v>0.97874618208283704</v>
       </c>
       <c r="R63" s="12">
         <f t="shared" si="6"/>
@@ -4291,8 +4553,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U63" s="24">
+        <f>_xll.nnGetCrossEntropyError(F63:H63,O63:Q63)</f>
+        <v>2.1482932494094276E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
         <v>4.8</v>
       </c>
@@ -4323,13 +4589,13 @@
       </c>
       <c r="O64" s="17">
         <f t="array" ref="O64:Q64">_xll.nnFeedForward($M$16,B64:E64)</f>
-        <v>0.99929072629075577</v>
+        <v>0.99890302255648933</v>
       </c>
       <c r="P64" s="17">
-        <v>7.0549006716984729E-4</v>
+        <v>1.0937612448946798E-3</v>
       </c>
       <c r="Q64" s="17">
-        <v>3.7836420743865888E-6</v>
+        <v>3.2161986158958639E-6</v>
       </c>
       <c r="R64" s="12">
         <f t="shared" si="6"/>
@@ -4343,8 +4609,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U64" s="24">
+        <f>_xll.nnGetCrossEntropyError(F64:H64,O64:Q64)</f>
+        <v>1.0975795636482073E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" s="12">
         <v>4.5999999999999996</v>
       </c>
@@ -4375,13 +4645,13 @@
       </c>
       <c r="O65" s="17">
         <f t="array" ref="O65:Q65">_xll.nnFeedForward($M$16,B65:E65)</f>
-        <v>0.99944689000625131</v>
+        <v>0.99911879002893711</v>
       </c>
       <c r="P65" s="17">
-        <v>5.4996319292934957E-4</v>
+        <v>8.7846472240397466E-4</v>
       </c>
       <c r="Q65" s="17">
-        <v>3.1468008193631203E-6</v>
+        <v>2.7452486588904515E-6</v>
       </c>
       <c r="R65" s="12">
         <f t="shared" si="6"/>
@@ -4395,8 +4665,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U65" s="24">
+        <f>_xll.nnGetCrossEntropyError(F65:H65,O65:Q65)</f>
+        <v>8.8159846481592136E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
         <v>6.4</v>
       </c>
@@ -4427,13 +4701,13 @@
       </c>
       <c r="O66" s="17">
         <f t="array" ref="O66:Q66">_xll.nnFeedForward($M$16,B66:E66)</f>
-        <v>6.6039768318367192E-7</v>
+        <v>3.7953976020543085E-7</v>
       </c>
       <c r="P66" s="17">
-        <v>1.466361788583437E-2</v>
+        <v>4.3654092413076013E-3</v>
       </c>
       <c r="Q66" s="17">
-        <v>0.98533572171648243</v>
+        <v>0.99563421121893214</v>
       </c>
       <c r="R66" s="12">
         <f t="shared" si="6"/>
@@ -4447,8 +4721,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U66" s="24">
+        <f>_xll.nnGetCrossEntropyError(F66:H66,O66:Q66)</f>
+        <v>4.3753466655225524E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
         <v>4.8</v>
       </c>
@@ -4479,13 +4757,13 @@
       </c>
       <c r="O67" s="17">
         <f t="array" ref="O67:Q67">_xll.nnFeedForward($M$16,B67:E67)</f>
-        <v>0.99913585901531221</v>
+        <v>0.99872013380970437</v>
       </c>
       <c r="P67" s="17">
-        <v>8.5976657140862049E-4</v>
+        <v>1.276270821834779E-3</v>
       </c>
       <c r="Q67" s="17">
-        <v>4.3744132791209017E-6</v>
+        <v>3.595368460863602E-6</v>
       </c>
       <c r="R67" s="12">
         <f t="shared" si="6"/>
@@ -4499,8 +4777,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U67" s="24">
+        <f>_xll.nnGetCrossEntropyError(F67:H67,O67:Q67)</f>
+        <v>1.2806859185311133E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
         <v>6</v>
       </c>
@@ -4531,13 +4813,13 @@
       </c>
       <c r="O68" s="17">
         <f t="array" ref="O68:Q68">_xll.nnFeedForward($M$16,B68:E68)</f>
-        <v>1.4971061844071378E-6</v>
+        <v>5.9510090523872684E-7</v>
       </c>
       <c r="P68" s="17">
-        <v>3.8730225903268654E-2</v>
+        <v>8.3159768249767858E-3</v>
       </c>
       <c r="Q68" s="17">
-        <v>0.96126827699054695</v>
+        <v>0.99168342807411802</v>
       </c>
       <c r="R68" s="12">
         <f t="shared" si="6"/>
@@ -4551,8 +4833,12 @@
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U68" s="24">
+        <f>_xll.nnGetCrossEntropyError(F68:H68,O68:Q68)</f>
+        <v>4.7895766957895818</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
         <v>6.1</v>
       </c>
@@ -4583,13 +4869,13 @@
       </c>
       <c r="O69" s="17">
         <f t="array" ref="O69:Q69">_xll.nnFeedForward($M$16,B69:E69)</f>
-        <v>3.7779736313215095E-4</v>
+        <v>5.6839522453457244E-4</v>
       </c>
       <c r="P69" s="17">
-        <v>0.99663213872476708</v>
+        <v>0.99864954554426333</v>
       </c>
       <c r="Q69" s="17">
-        <v>2.990063912100667E-3</v>
+        <v>7.8205923120212991E-4</v>
       </c>
       <c r="R69" s="12">
         <f t="shared" si="6"/>
@@ -4603,8 +4889,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U69" s="24">
+        <f>_xll.nnGetCrossEntropyError(F69:H69,O69:Q69)</f>
+        <v>1.3513671411411001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B70" s="12">
         <v>6.7</v>
       </c>
@@ -4635,13 +4925,13 @@
       </c>
       <c r="O70" s="17">
         <f t="array" ref="O70:Q70">_xll.nnFeedForward($M$16,B70:E70)</f>
-        <v>4.2990187938286074E-7</v>
+        <v>3.3968717248627336E-7</v>
       </c>
       <c r="P70" s="17">
-        <v>7.9858192090365068E-3</v>
+        <v>3.8639268371594227E-3</v>
       </c>
       <c r="Q70" s="17">
-        <v>0.99201375088908417</v>
+        <v>0.99613573347566819</v>
       </c>
       <c r="R70" s="12">
         <f t="shared" si="6"/>
@@ -4655,8 +4945,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U70" s="24">
+        <f>_xll.nnGetCrossEntropyError(F70:H70,O70:Q70)</f>
+        <v>3.871752092593998E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
         <v>4.5</v>
       </c>
@@ -4687,13 +4981,13 @@
       </c>
       <c r="O71" s="17">
         <f t="array" ref="O71:Q71">_xll.nnFeedForward($M$16,B71:E71)</f>
-        <v>0.99882694790945581</v>
+        <v>0.99820212822634213</v>
       </c>
       <c r="P71" s="17">
-        <v>1.167508142934083E-3</v>
+        <v>1.7932728087947619E-3</v>
       </c>
       <c r="Q71" s="17">
-        <v>5.5439476100296454E-6</v>
+        <v>4.5989648631220495E-6</v>
       </c>
       <c r="R71" s="12">
         <f t="shared" si="6"/>
@@ -4707,8 +5001,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U71" s="24">
+        <f>_xll.nnGetCrossEntropyError(F71:H71,O71:Q71)</f>
+        <v>1.7994898848435932E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72" s="12">
         <v>5.4</v>
       </c>
@@ -4739,13 +5037,13 @@
       </c>
       <c r="O72" s="17">
         <f t="array" ref="O72:Q72">_xll.nnFeedForward($M$16,B72:E72)</f>
-        <v>0.99949582378507984</v>
+        <v>0.99918327204753643</v>
       </c>
       <c r="P72" s="17">
-        <v>5.0124026420400711E-4</v>
+        <v>8.1412954190893463E-4</v>
       </c>
       <c r="Q72" s="17">
-        <v>2.9359507162861488E-6</v>
+        <v>2.5984105545862628E-6</v>
       </c>
       <c r="R72" s="12">
         <f t="shared" si="6"/>
@@ -4759,8 +5057,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U72" s="24">
+        <f>_xll.nnGetCrossEntropyError(F72:H72,O72:Q72)</f>
+        <v>8.1706165644702315E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B73" s="12">
         <v>6</v>
       </c>
@@ -4791,13 +5093,13 @@
       </c>
       <c r="O73" s="17">
         <f t="array" ref="O73:Q73">_xll.nnFeedForward($M$16,B73:E73)</f>
-        <v>3.7777615928060555E-4</v>
+        <v>1.088879538907001E-4</v>
       </c>
       <c r="P73" s="17">
-        <v>0.99364087722501315</v>
+        <v>0.98608694367949312</v>
       </c>
       <c r="Q73" s="17">
-        <v>5.9813466157062961E-3</v>
+        <v>1.3804168366616167E-2</v>
       </c>
       <c r="R73" s="12">
         <f t="shared" si="6"/>
@@ -4811,8 +5113,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U73" s="24">
+        <f>_xll.nnGetCrossEntropyError(F73:H73,O73:Q73)</f>
+        <v>1.4010750093040173E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
         <v>4.9000000000000004</v>
       </c>
@@ -4843,13 +5149,13 @@
       </c>
       <c r="O74" s="17">
         <f t="array" ref="O74:Q74">_xll.nnFeedForward($M$16,B74:E74)</f>
-        <v>0.9993985980131016</v>
+        <v>0.99904693819591284</v>
       </c>
       <c r="P74" s="17">
-        <v>5.9805590833224569E-4</v>
+        <v>9.5015658567720374E-4</v>
       </c>
       <c r="Q74" s="17">
-        <v>3.3460785662458543E-6</v>
+        <v>2.9052184099919856E-6</v>
       </c>
       <c r="R74" s="12">
         <f t="shared" si="6"/>
@@ -4863,8 +5169,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U74" s="24">
+        <f>_xll.nnGetCrossEntropyError(F74:H74,O74:Q74)</f>
+        <v>9.5351625625865011E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
         <v>7.2</v>
       </c>
@@ -4895,13 +5205,13 @@
       </c>
       <c r="O75" s="17">
         <f t="array" ref="O75:Q75">_xll.nnFeedForward($M$16,B75:E75)</f>
-        <v>3.7317666688645367E-6</v>
+        <v>1.3368824501560376E-6</v>
       </c>
       <c r="P75" s="17">
-        <v>0.12587274724470268</v>
+        <v>4.1045453403607907E-2</v>
       </c>
       <c r="Q75" s="17">
-        <v>0.87412352098862856</v>
+        <v>0.95895320971394193</v>
       </c>
       <c r="R75" s="12">
         <f t="shared" si="6"/>
@@ -4915,8 +5225,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U75" s="24">
+        <f>_xll.nnGetCrossEntropyError(F75:H75,O75:Q75)</f>
+        <v>4.1912995993965481E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B76" s="12">
         <v>6.2</v>
       </c>
@@ -4947,13 +5261,13 @@
       </c>
       <c r="O76" s="17">
         <f t="array" ref="O76:Q76">_xll.nnFeedForward($M$16,B76:E76)</f>
-        <v>4.2390705921976778E-6</v>
+        <v>1.2759704441988013E-6</v>
       </c>
       <c r="P76" s="17">
-        <v>0.10010440412208522</v>
+        <v>2.6732318233296887E-2</v>
       </c>
       <c r="Q76" s="17">
-        <v>0.89989135680732257</v>
+        <v>0.973266405796259</v>
       </c>
       <c r="R76" s="12">
         <f t="shared" si="6"/>
@@ -4967,8 +5281,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U76" s="24">
+        <f>_xll.nnGetCrossEntropyError(F76:H76,O76:Q76)</f>
+        <v>2.7097435920303864E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B77" s="12">
         <v>6.8</v>
       </c>
@@ -4999,13 +5317,13 @@
       </c>
       <c r="O77" s="17">
         <f t="array" ref="O77:Q77">_xll.nnFeedForward($M$16,B77:E77)</f>
-        <v>7.4642386134020031E-7</v>
+        <v>3.7785307116557221E-7</v>
       </c>
       <c r="P77" s="17">
-        <v>1.7437401055116573E-2</v>
+        <v>4.3722324603042611E-3</v>
       </c>
       <c r="Q77" s="17">
-        <v>0.98256185252102213</v>
+        <v>0.99562738968662456</v>
       </c>
       <c r="R77" s="12">
         <f t="shared" si="6"/>
@@ -5019,8 +5337,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U77" s="24">
+        <f>_xll.nnGetCrossEntropyError(F77:H77,O77:Q77)</f>
+        <v>4.3821981332598913E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B78" s="12">
         <v>5.4</v>
       </c>
@@ -5051,17 +5373,17 @@
       </c>
       <c r="O78" s="17">
         <f t="array" ref="O78:Q78">_xll.nnFeedForward($M$16,B78:E78)</f>
-        <v>1.6596003924182872E-4</v>
+        <v>1.2766081677029953E-5</v>
       </c>
       <c r="P78" s="17">
-        <v>0.70395494797947378</v>
+        <v>0.25969483517451147</v>
       </c>
       <c r="Q78" s="17">
-        <v>0.29587909198128431</v>
+        <v>0.74029239874381148</v>
       </c>
       <c r="R78" s="12">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S78" s="11">
         <f t="shared" si="7"/>
@@ -5069,10 +5391,14 @@
       </c>
       <c r="T78" s="17">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="U78" s="24">
+        <f>_xll.nnGetCrossEntropyError(F78:H78,O78:Q78)</f>
+        <v>1.3482480481719146</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B79" s="12">
         <v>5.7</v>
       </c>
@@ -5103,13 +5429,13 @@
       </c>
       <c r="O79" s="17">
         <f t="array" ref="O79:Q79">_xll.nnFeedForward($M$16,B79:E79)</f>
-        <v>3.146504110988728E-4</v>
+        <v>1.8336538786638528E-4</v>
       </c>
       <c r="P79" s="17">
-        <v>0.99590805500256463</v>
+        <v>0.9972053521954064</v>
       </c>
       <c r="Q79" s="17">
-        <v>3.7772945863365757E-3</v>
+        <v>2.6112824167271449E-3</v>
       </c>
       <c r="R79" s="12">
         <f t="shared" si="6"/>
@@ -5123,8 +5449,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U79" s="24">
+        <f>_xll.nnGetCrossEntropyError(F79:H79,O79:Q79)</f>
+        <v>2.7985601235051539E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B80" s="12">
         <v>6.1</v>
       </c>
@@ -5155,13 +5485,13 @@
       </c>
       <c r="O80" s="17">
         <f t="array" ref="O80:Q80">_xll.nnFeedForward($M$16,B80:E80)</f>
-        <v>2.1203793888107384E-4</v>
+        <v>6.1127393069138232E-5</v>
       </c>
       <c r="P80" s="17">
-        <v>0.99231849168255726</v>
+        <v>0.97379521493009102</v>
       </c>
       <c r="Q80" s="17">
-        <v>7.4694703785616375E-3</v>
+        <v>2.6143657676839863E-2</v>
       </c>
       <c r="R80" s="12">
         <f t="shared" si="6"/>
@@ -5175,8 +5505,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U80" s="24">
+        <f>_xll.nnGetCrossEntropyError(F80:H80,O80:Q80)</f>
+        <v>2.6554249057386882E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B81" s="12">
         <v>7.9</v>
       </c>
@@ -5207,13 +5541,13 @@
       </c>
       <c r="O81" s="17">
         <f t="array" ref="O81:Q81">_xll.nnFeedForward($M$16,B81:E81)</f>
-        <v>2.3310909202309724E-6</v>
+        <v>8.2507964599478324E-7</v>
       </c>
       <c r="P81" s="17">
-        <v>5.6209774312094625E-2</v>
+        <v>1.691634630526381E-2</v>
       </c>
       <c r="Q81" s="17">
-        <v>0.94378789459698509</v>
+        <v>0.98308282861509022</v>
       </c>
       <c r="R81" s="12">
         <f t="shared" si="6"/>
@@ -5227,8 +5561,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U81" s="24">
+        <f>_xll.nnGetCrossEntropyError(F81:H81,O81:Q81)</f>
+        <v>1.7061901331742554E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B82" s="12">
         <v>6.3</v>
       </c>
@@ -5259,13 +5597,13 @@
       </c>
       <c r="O82" s="17">
         <f t="array" ref="O82:Q82">_xll.nnFeedForward($M$16,B82:E82)</f>
-        <v>4.4340344593376972E-7</v>
+        <v>3.393153135448174E-7</v>
       </c>
       <c r="P82" s="17">
-        <v>8.036800391027419E-3</v>
+        <v>3.8593133513150834E-3</v>
       </c>
       <c r="Q82" s="17">
-        <v>0.99196275620552665</v>
+        <v>0.99614034733337131</v>
       </c>
       <c r="R82" s="12">
         <f t="shared" si="6"/>
@@ -5279,8 +5617,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U82" s="24">
+        <f>_xll.nnGetCrossEntropyError(F82:H82,O82:Q82)</f>
+        <v>3.8671203472776037E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B83" s="12">
         <v>6.9</v>
       </c>
@@ -5311,13 +5653,13 @@
       </c>
       <c r="O83" s="17">
         <f t="array" ref="O83:Q83">_xll.nnFeedForward($M$16,B83:E83)</f>
-        <v>5.0729052702014016E-7</v>
+        <v>3.4672889796420048E-7</v>
       </c>
       <c r="P83" s="17">
-        <v>1.0057823404757473E-2</v>
+        <v>3.9453209790597946E-3</v>
       </c>
       <c r="Q83" s="17">
-        <v>0.98994166930471561</v>
+        <v>0.99605433229204221</v>
       </c>
       <c r="R83" s="12">
         <f t="shared" si="6"/>
@@ -5331,8 +5673,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U83" s="24">
+        <f>_xll.nnGetCrossEntropyError(F83:H83,O83:Q83)</f>
+        <v>3.9534723913446264E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B84" s="12">
         <v>5.0999999999999996</v>
       </c>
@@ -5363,13 +5709,13 @@
       </c>
       <c r="O84" s="17">
         <f t="array" ref="O84:Q84">_xll.nnFeedForward($M$16,B84:E84)</f>
-        <v>0.99949081213161695</v>
+        <v>0.99917792334589162</v>
       </c>
       <c r="P84" s="17">
-        <v>5.0622987019277783E-4</v>
+        <v>8.1946593485076333E-4</v>
       </c>
       <c r="Q84" s="17">
-        <v>2.9579981903767568E-6</v>
+        <v>2.6107192576839089E-6</v>
       </c>
       <c r="R84" s="12">
         <f t="shared" si="6"/>
@@ -5383,8 +5729,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U84" s="24">
+        <f>_xll.nnGetCrossEntropyError(F84:H84,O84:Q84)</f>
+        <v>8.2241474442446819E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B85" s="12">
         <v>7.1</v>
       </c>
@@ -5415,13 +5765,13 @@
       </c>
       <c r="O85" s="17">
         <f t="array" ref="O85:Q85">_xll.nnFeedForward($M$16,B85:E85)</f>
-        <v>5.1382027655147099E-7</v>
+        <v>3.4982217212782615E-7</v>
       </c>
       <c r="P85" s="17">
-        <v>1.0420581350862521E-2</v>
+        <v>3.9880864666165415E-3</v>
       </c>
       <c r="Q85" s="17">
-        <v>0.98957890482886091</v>
+        <v>0.99601156371121125</v>
       </c>
       <c r="R85" s="12">
         <f t="shared" si="6"/>
@@ -5435,8 +5785,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U85" s="24">
+        <f>_xll.nnGetCrossEntropyError(F85:H85,O85:Q85)</f>
+        <v>3.9964113131175901E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B86" s="12">
         <v>6.2</v>
       </c>
@@ -5467,13 +5821,13 @@
       </c>
       <c r="O86" s="17">
         <f t="array" ref="O86:Q86">_xll.nnFeedForward($M$16,B86:E86)</f>
-        <v>3.1782396434781141E-4</v>
+        <v>2.7991771212587148E-4</v>
       </c>
       <c r="P86" s="17">
-        <v>0.99625671594503551</v>
+        <v>0.99819085811450481</v>
       </c>
       <c r="Q86" s="17">
-        <v>3.4254600906166782E-3</v>
+        <v>1.529224173369207E-3</v>
       </c>
       <c r="R86" s="12">
         <f t="shared" si="6"/>
@@ -5487,8 +5841,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U86" s="24">
+        <f>_xll.nnGetCrossEntropyError(F86:H86,O86:Q86)</f>
+        <v>1.8107803591285198E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B87" s="12">
         <v>7.6</v>
       </c>
@@ -5519,13 +5877,13 @@
       </c>
       <c r="O87" s="17">
         <f t="array" ref="O87:Q87">_xll.nnFeedForward($M$16,B87:E87)</f>
-        <v>4.170937207929225E-7</v>
+        <v>3.3771444673459229E-7</v>
       </c>
       <c r="P87" s="17">
-        <v>7.7360841798376151E-3</v>
+        <v>3.8488797828369679E-3</v>
       </c>
       <c r="Q87" s="17">
-        <v>0.9922634987264416</v>
+        <v>0.99615078250271627</v>
       </c>
       <c r="R87" s="12">
         <f t="shared" si="6"/>
@@ -5539,8 +5897,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U87" s="24">
+        <f>_xll.nnGetCrossEntropyError(F87:H87,O87:Q87)</f>
+        <v>3.8566448006180031E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B88" s="12">
         <v>5</v>
       </c>
@@ -5571,13 +5933,13 @@
       </c>
       <c r="O88" s="17">
         <f t="array" ref="O88:Q88">_xll.nnFeedForward($M$16,B88:E88)</f>
-        <v>0.99937559330324277</v>
+        <v>0.99902436174289511</v>
       </c>
       <c r="P88" s="17">
-        <v>6.2096109783654437E-4</v>
+        <v>9.7268334408533435E-4</v>
       </c>
       <c r="Q88" s="17">
-        <v>3.4455989206071291E-6</v>
+        <v>2.9549130196416145E-6</v>
       </c>
       <c r="R88" s="12">
         <f t="shared" si="6"/>
@@ -5591,8 +5953,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U88" s="24">
+        <f>_xll.nnGetCrossEntropyError(F88:H88,O88:Q88)</f>
+        <v>9.7611450189621365E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B89" s="12">
         <v>7.7</v>
       </c>
@@ -5623,13 +5989,13 @@
       </c>
       <c r="O89" s="17">
         <f t="array" ref="O89:Q89">_xll.nnFeedForward($M$16,B89:E89)</f>
-        <v>6.5304678905481218E-7</v>
+        <v>3.4746186225965599E-7</v>
       </c>
       <c r="P89" s="17">
-        <v>1.4451463433420087E-2</v>
+        <v>3.9818362228840297E-3</v>
       </c>
       <c r="Q89" s="17">
-        <v>0.98554788351979095</v>
+        <v>0.99601781631525377</v>
       </c>
       <c r="R89" s="12">
         <f t="shared" si="6"/>
@@ -5643,8 +6009,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U89" s="24">
+        <f>_xll.nnGetCrossEntropyError(F89:H89,O89:Q89)</f>
+        <v>3.9901336908041481E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B90" s="12">
         <v>6.7</v>
       </c>
@@ -5675,13 +6045,13 @@
       </c>
       <c r="O90" s="17">
         <f t="array" ref="O90:Q90">_xll.nnFeedForward($M$16,B90:E90)</f>
-        <v>7.4740907603401179E-7</v>
+        <v>3.6554160246021208E-7</v>
       </c>
       <c r="P90" s="17">
-        <v>1.6573698921595326E-2</v>
+        <v>4.1913307736598081E-3</v>
       </c>
       <c r="Q90" s="17">
-        <v>0.98342555366932871</v>
+        <v>0.99580830368473772</v>
       </c>
       <c r="R90" s="12">
         <f t="shared" si="6"/>
@@ -5695,8 +6065,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U90" s="24">
+        <f>_xll.nnGetCrossEntropyError(F90:H90,O90:Q90)</f>
+        <v>4.2005061015131153E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B91" s="12">
         <v>5.2</v>
       </c>
@@ -5727,13 +6101,13 @@
       </c>
       <c r="O91" s="17">
         <f t="array" ref="O91:Q91">_xll.nnFeedForward($M$16,B91:E91)</f>
-        <v>0.99951499975737046</v>
+        <v>0.99920942093566545</v>
       </c>
       <c r="P91" s="17">
-        <v>4.821478620880143E-4</v>
+        <v>7.880410647712274E-4</v>
       </c>
       <c r="Q91" s="17">
-        <v>2.8523805415094704E-6</v>
+        <v>2.537999563456651E-6</v>
       </c>
       <c r="R91" s="12">
         <f t="shared" si="6"/>
@@ -5747,8 +6121,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U91" s="24">
+        <f>_xll.nnGetCrossEntropyError(F91:H91,O91:Q91)</f>
+        <v>7.9089173676874839E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B92" s="12">
         <v>6.7</v>
       </c>
@@ -5779,13 +6157,13 @@
       </c>
       <c r="O92" s="17">
         <f t="array" ref="O92:Q92">_xll.nnFeedForward($M$16,B92:E92)</f>
-        <v>4.3657230634935561E-7</v>
+        <v>3.4592614287542222E-7</v>
       </c>
       <c r="P92" s="17">
-        <v>8.2469215226426747E-3</v>
+        <v>3.9248646611544811E-3</v>
       </c>
       <c r="Q92" s="17">
-        <v>0.99175264190505097</v>
+        <v>0.99607478941270267</v>
       </c>
       <c r="R92" s="12">
         <f t="shared" si="6"/>
@@ -5799,8 +6177,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U92" s="24">
+        <f>_xll.nnGetCrossEntropyError(F92:H92,O92:Q92)</f>
+        <v>3.9329344448447842E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B93" s="12">
         <v>5</v>
       </c>
@@ -5831,13 +6213,13 @@
       </c>
       <c r="O93" s="17">
         <f t="array" ref="O93:Q93">_xll.nnFeedForward($M$16,B93:E93)</f>
-        <v>0.99949198288397345</v>
+        <v>0.99917786827177402</v>
       </c>
       <c r="P93" s="17">
-        <v>5.0506353268971367E-4</v>
+        <v>8.1952087456282148E-4</v>
       </c>
       <c r="Q93" s="17">
-        <v>2.9535833366554139E-6</v>
+        <v>2.6108536631470132E-6</v>
       </c>
       <c r="R93" s="12">
         <f t="shared" si="6"/>
@@ -5851,8 +6233,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U93" s="24">
+        <f>_xll.nnGetCrossEntropyError(F93:H93,O93:Q93)</f>
+        <v>8.2246986385598364E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B94" s="12">
         <v>6.4</v>
       </c>
@@ -5883,13 +6269,13 @@
       </c>
       <c r="O94" s="17">
         <f t="array" ref="O94:Q94">_xll.nnFeedForward($M$16,B94:E94)</f>
-        <v>3.2862188835649494E-4</v>
+        <v>3.9824266532979992E-4</v>
       </c>
       <c r="P94" s="17">
-        <v>0.99639716465782879</v>
+        <v>0.998507404532753</v>
       </c>
       <c r="Q94" s="17">
-        <v>3.2742134538146679E-3</v>
+        <v>1.0943528019171124E-3</v>
       </c>
       <c r="R94" s="12">
         <f t="shared" si="6"/>
@@ -5903,8 +6289,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U94" s="24">
+        <f>_xll.nnGetCrossEntropyError(F94:H94,O94:Q94)</f>
+        <v>1.4937104975256367E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B95" s="12">
         <v>4.5999999999999996</v>
       </c>
@@ -5935,13 +6325,13 @@
       </c>
       <c r="O95" s="17">
         <f t="array" ref="O95:Q95">_xll.nnFeedForward($M$16,B95:E95)</f>
-        <v>0.9993423330647595</v>
+        <v>0.99897383761934266</v>
       </c>
       <c r="P95" s="17">
-        <v>6.5408901667089638E-4</v>
+        <v>1.0230976101681265E-3</v>
       </c>
       <c r="Q95" s="17">
-        <v>3.5779185695419012E-6</v>
+        <v>3.0647704892298003E-6</v>
       </c>
       <c r="R95" s="12">
         <f t="shared" si="6"/>
@@ -5955,8 +6345,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U95" s="24">
+        <f>_xll.nnGetCrossEntropyError(F95:H95,O95:Q95)</f>
+        <v>1.0266892457366625E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B96" s="12">
         <v>5.0999999999999996</v>
       </c>
@@ -5987,13 +6381,13 @@
       </c>
       <c r="O96" s="17">
         <f t="array" ref="O96:Q96">_xll.nnFeedForward($M$16,B96:E96)</f>
-        <v>0.99947430305629548</v>
+        <v>0.99915625069480096</v>
       </c>
       <c r="P96" s="17">
-        <v>5.2266692037858452E-4</v>
+        <v>8.4108898589043866E-4</v>
       </c>
       <c r="Q96" s="17">
-        <v>3.0300233258919647E-6</v>
+        <v>2.6603193087133562E-6</v>
       </c>
       <c r="R96" s="12">
         <f t="shared" si="6"/>
@@ -6007,8 +6401,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U96" s="24">
+        <f>_xll.nnGetCrossEntropyError(F96:H96,O96:Q96)</f>
+        <v>8.4410546199617542E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B97" s="12">
         <v>5.6</v>
       </c>
@@ -6039,13 +6437,13 @@
       </c>
       <c r="O97" s="17">
         <f t="array" ref="O97:Q97">_xll.nnFeedForward($M$16,B97:E97)</f>
-        <v>2.0419689014744278E-4</v>
+        <v>2.5296323147348964E-5</v>
       </c>
       <c r="P97" s="17">
-        <v>0.90663974562975147</v>
+        <v>0.50841999532074789</v>
       </c>
       <c r="Q97" s="17">
-        <v>9.3156057480101112E-2</v>
+        <v>0.49155470835610471</v>
       </c>
       <c r="R97" s="12">
         <f t="shared" si="6"/>
@@ -6059,8 +6457,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U97" s="24">
+        <f>_xll.nnGetCrossEntropyError(F97:H97,O97:Q97)</f>
+        <v>0.67644741054104884</v>
+      </c>
+    </row>
+    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B98" s="12">
         <v>4.7</v>
       </c>
@@ -6091,13 +6493,13 @@
       </c>
       <c r="O98" s="17">
         <f t="array" ref="O98:Q98">_xll.nnFeedForward($M$16,B98:E98)</f>
-        <v>0.99932435985795265</v>
+        <v>0.99895243591249838</v>
       </c>
       <c r="P98" s="17">
-        <v>6.7199109289488431E-4</v>
+        <v>1.0444532803195001E-3</v>
       </c>
       <c r="Q98" s="17">
-        <v>3.6490491524767924E-6</v>
+        <v>3.110807181994177E-6</v>
       </c>
       <c r="R98" s="12">
         <f t="shared" ref="R98:R155" si="9">IF(Q98&gt;MAX(O98:P98),3,IF(P98&gt;O98,2,1))</f>
@@ -6111,8 +6513,12 @@
         <f t="shared" ref="T98:T155" si="11">S98-R98</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U98" s="24">
+        <f>_xll.nnGetCrossEntropyError(F98:H98,O98:Q98)</f>
+        <v>1.0481131662572806E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B99" s="12">
         <v>6.8</v>
       </c>
@@ -6143,13 +6549,13 @@
       </c>
       <c r="O99" s="17">
         <f t="array" ref="O99:Q99">_xll.nnFeedForward($M$16,B99:E99)</f>
-        <v>4.2679024253189535E-7</v>
+        <v>3.3875275333603085E-7</v>
       </c>
       <c r="P99" s="17">
-        <v>7.9104937742537317E-3</v>
+        <v>3.856534278262747E-3</v>
       </c>
       <c r="Q99" s="17">
-        <v>0.99208907943550373</v>
+        <v>0.99614312696898388</v>
       </c>
       <c r="R99" s="12">
         <f t="shared" si="9"/>
@@ -6163,8 +6569,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U99" s="24">
+        <f>_xll.nnGetCrossEntropyError(F99:H99,O99:Q99)</f>
+        <v>3.8643299455617575E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B100" s="12">
         <v>6.9</v>
       </c>
@@ -6195,13 +6605,13 @@
       </c>
       <c r="O100" s="17">
         <f t="array" ref="O100:Q100">_xll.nnFeedForward($M$16,B100:E100)</f>
-        <v>1.3888271589705024E-6</v>
+        <v>5.332566244545969E-7</v>
       </c>
       <c r="P100" s="17">
-        <v>3.6059104414890977E-2</v>
+        <v>6.9863322212427937E-3</v>
       </c>
       <c r="Q100" s="17">
-        <v>0.96393950675795004</v>
+        <v>0.9930131345221328</v>
       </c>
       <c r="R100" s="12">
         <f t="shared" si="9"/>
@@ -6215,8 +6625,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U100" s="24">
+        <f>_xll.nnGetCrossEntropyError(F100:H100,O100:Q100)</f>
+        <v>7.0113879125257191E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B101" s="12">
         <v>5.5</v>
       </c>
@@ -6247,13 +6661,13 @@
       </c>
       <c r="O101" s="17">
         <f t="array" ref="O101:Q101">_xll.nnFeedForward($M$16,B101:E101)</f>
-        <v>7.6985963821949981E-5</v>
+        <v>4.1137218741235719E-5</v>
       </c>
       <c r="P101" s="17">
-        <v>0.98317584006049474</v>
+        <v>0.92054462474957244</v>
       </c>
       <c r="Q101" s="17">
-        <v>1.6747173975683222E-2</v>
+        <v>7.9414238031686304E-2</v>
       </c>
       <c r="R101" s="12">
         <f t="shared" si="9"/>
@@ -6267,8 +6681,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U101" s="24">
+        <f>_xll.nnGetCrossEntropyError(F101:H101,O101:Q101)</f>
+        <v>8.278980066866784E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B102" s="12">
         <v>6.5</v>
       </c>
@@ -6299,13 +6717,13 @@
       </c>
       <c r="O102" s="17">
         <f t="array" ref="O102:Q102">_xll.nnFeedForward($M$16,B102:E102)</f>
-        <v>4.1677016798271795E-7</v>
+        <v>3.3781477982607958E-7</v>
       </c>
       <c r="P102" s="17">
-        <v>7.6733246681664809E-3</v>
+        <v>3.8466226621540357E-3</v>
       </c>
       <c r="Q102" s="17">
-        <v>0.99232625856166556</v>
+        <v>0.99615303952306611</v>
       </c>
       <c r="R102" s="12">
         <f t="shared" si="9"/>
@@ -6319,8 +6737,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U102" s="24">
+        <f>_xll.nnGetCrossEntropyError(F102:H102,O102:Q102)</f>
+        <v>3.8543790615024253E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B103" s="12">
         <v>6.3</v>
       </c>
@@ -6351,13 +6773,13 @@
       </c>
       <c r="O103" s="17">
         <f t="array" ref="O103:Q103">_xll.nnFeedForward($M$16,B103:E103)</f>
-        <v>4.1105922660982092E-7</v>
+        <v>3.3544332334803369E-7</v>
       </c>
       <c r="P103" s="17">
-        <v>7.5452058175206286E-3</v>
+        <v>3.8312709077608564E-3</v>
       </c>
       <c r="Q103" s="17">
-        <v>0.99245438312325263</v>
+        <v>0.99616839364891585</v>
       </c>
       <c r="R103" s="12">
         <f t="shared" si="9"/>
@@ -6371,8 +6793,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U103" s="24">
+        <f>_xll.nnGetCrossEntropyError(F103:H103,O103:Q103)</f>
+        <v>3.8389657596180995E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B104" s="12">
         <v>6.3</v>
       </c>
@@ -6403,13 +6829,13 @@
       </c>
       <c r="O104" s="17">
         <f t="array" ref="O104:Q104">_xll.nnFeedForward($M$16,B104:E104)</f>
-        <v>5.7635212585413095E-7</v>
+        <v>3.6084751193751235E-7</v>
       </c>
       <c r="P104" s="17">
-        <v>1.1887040851471013E-2</v>
+        <v>4.1081452900562357E-3</v>
       </c>
       <c r="Q104" s="17">
-        <v>0.98811238279640323</v>
+        <v>0.99589149386243181</v>
       </c>
       <c r="R104" s="12">
         <f t="shared" si="9"/>
@@ -6423,8 +6849,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U104" s="24">
+        <f>_xll.nnGetCrossEntropyError(F104:H104,O104:Q104)</f>
+        <v>4.1169692373281396E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B105" s="12">
         <v>4.4000000000000004</v>
       </c>
@@ -6455,13 +6885,13 @@
       </c>
       <c r="O105" s="17">
         <f t="array" ref="O105:Q105">_xll.nnFeedForward($M$16,B105:E105)</f>
-        <v>0.99930304400661196</v>
+        <v>0.99891593275301338</v>
       </c>
       <c r="P105" s="17">
-        <v>6.9321824185548519E-4</v>
+        <v>1.0808782699109557E-3</v>
       </c>
       <c r="Q105" s="17">
-        <v>3.7377515325968943E-6</v>
+        <v>3.1889770756266115E-6</v>
       </c>
       <c r="R105" s="12">
         <f t="shared" si="9"/>
@@ -6475,8 +6905,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U105" s="24">
+        <f>_xll.nnGetCrossEntropyError(F105:H105,O105:Q105)</f>
+        <v>1.084655272896114E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B106" s="12">
         <v>6.7</v>
       </c>
@@ -6507,13 +6941,13 @@
       </c>
       <c r="O106" s="17">
         <f t="array" ref="O106:Q106">_xll.nnFeedForward($M$16,B106:E106)</f>
-        <v>4.2585553671356913E-7</v>
+        <v>3.3816437509543906E-7</v>
       </c>
       <c r="P106" s="17">
-        <v>7.8439334352609028E-3</v>
+        <v>3.8511378887917808E-3</v>
       </c>
       <c r="Q106" s="17">
-        <v>0.99215564070920248</v>
+        <v>0.99614852394683306</v>
       </c>
       <c r="R106" s="12">
         <f t="shared" si="9"/>
@@ -6527,8 +6961,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U106" s="24">
+        <f>_xll.nnGetCrossEntropyError(F106:H106,O106:Q106)</f>
+        <v>3.8589120863374684E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B107" s="12">
         <v>4.9000000000000004</v>
       </c>
@@ -6559,13 +6997,13 @@
       </c>
       <c r="O107" s="17">
         <f t="array" ref="O107:Q107">_xll.nnFeedForward($M$16,B107:E107)</f>
-        <v>0.9993985980131016</v>
+        <v>0.99904693819591284</v>
       </c>
       <c r="P107" s="17">
-        <v>5.9805590833224569E-4</v>
+        <v>9.5015658567720374E-4</v>
       </c>
       <c r="Q107" s="17">
-        <v>3.3460785662458543E-6</v>
+        <v>2.9052184099919856E-6</v>
       </c>
       <c r="R107" s="12">
         <f t="shared" si="9"/>
@@ -6579,8 +7017,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U107" s="24">
+        <f>_xll.nnGetCrossEntropyError(F107:H107,O107:Q107)</f>
+        <v>9.5351625625865011E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B108" s="12">
         <v>5.5</v>
       </c>
@@ -6611,13 +7053,13 @@
       </c>
       <c r="O108" s="17">
         <f t="array" ref="O108:Q108">_xll.nnFeedForward($M$16,B108:E108)</f>
-        <v>0.99952162463493333</v>
+        <v>0.99921774467333913</v>
       </c>
       <c r="P108" s="17">
-        <v>4.7555173039276087E-4</v>
+        <v>7.7973667311029293E-4</v>
       </c>
       <c r="Q108" s="17">
-        <v>2.82363467386569E-6</v>
+        <v>2.5186535505584361E-6</v>
       </c>
       <c r="R108" s="12">
         <f t="shared" si="9"/>
@@ -6631,8 +7073,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U108" s="24">
+        <f>_xll.nnGetCrossEntropyError(F108:H108,O108:Q108)</f>
+        <v>7.8256144801270233E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B109" s="12">
         <v>5.5</v>
       </c>
@@ -6663,13 +7109,13 @@
       </c>
       <c r="O109" s="17">
         <f t="array" ref="O109:Q109">_xll.nnFeedForward($M$16,B109:E109)</f>
-        <v>1.1756233419087063E-4</v>
+        <v>3.9564634196825748E-5</v>
       </c>
       <c r="P109" s="17">
-        <v>0.97722922728966455</v>
+        <v>0.84392306507798243</v>
       </c>
       <c r="Q109" s="17">
-        <v>2.2653210376144449E-2</v>
+        <v>0.15603737028782072</v>
       </c>
       <c r="R109" s="12">
         <f t="shared" si="9"/>
@@ -6683,8 +7129,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U109" s="24">
+        <f>_xll.nnGetCrossEntropyError(F109:H109,O109:Q109)</f>
+        <v>0.16969394366193435</v>
+      </c>
+    </row>
+    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B110" s="12">
         <v>5</v>
       </c>
@@ -6715,13 +7165,13 @@
       </c>
       <c r="O110" s="17">
         <f t="array" ref="O110:Q110">_xll.nnFeedForward($M$16,B110:E110)</f>
-        <v>0.99945130400356197</v>
+        <v>0.99912290173608043</v>
       </c>
       <c r="P110" s="17">
-        <v>5.4556939758571032E-4</v>
+        <v>8.7436235919515664E-4</v>
       </c>
       <c r="Q110" s="17">
-        <v>3.1265988522807236E-6</v>
+        <v>2.7359047243487562E-6</v>
       </c>
       <c r="R110" s="12">
         <f t="shared" si="9"/>
@@ -6735,8 +7185,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U110" s="24">
+        <f>_xll.nnGetCrossEntropyError(F110:H110,O110:Q110)</f>
+        <v>8.7748313966754931E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B111" s="12">
         <v>4.5999999999999996</v>
       </c>
@@ -6767,13 +7221,13 @@
       </c>
       <c r="O111" s="17">
         <f t="array" ref="O111:Q111">_xll.nnFeedForward($M$16,B111:E111)</f>
-        <v>0.99951783569762964</v>
+        <v>0.99921237951893138</v>
       </c>
       <c r="P111" s="17">
-        <v>4.7932372479076959E-4</v>
+        <v>7.8508933836982163E-4</v>
       </c>
       <c r="Q111" s="17">
-        <v>2.8405775796514188E-6</v>
+        <v>2.5311426988070622E-6</v>
       </c>
       <c r="R111" s="12">
         <f t="shared" si="9"/>
@@ -6787,8 +7241,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U111" s="24">
+        <f>_xll.nnGetCrossEntropyError(F111:H111,O111:Q111)</f>
+        <v>7.8793081704172979E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B112" s="12">
         <v>5.2</v>
       </c>
@@ -6819,13 +7277,13 @@
       </c>
       <c r="O112" s="17">
         <f t="array" ref="O112:Q112">_xll.nnFeedForward($M$16,B112:E112)</f>
-        <v>0.99948054490178329</v>
+        <v>0.99916141106542466</v>
       </c>
       <c r="P112" s="17">
-        <v>5.164528908198037E-4</v>
+        <v>8.359404187348083E-4</v>
       </c>
       <c r="Q112" s="17">
-        <v>3.0022073969627829E-6</v>
+        <v>2.6485158405714436E-6</v>
       </c>
       <c r="R112" s="12">
         <f t="shared" si="9"/>
@@ -6839,8 +7297,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U112" s="24">
+        <f>_xll.nnGetCrossEntropyError(F112:H112,O112:Q112)</f>
+        <v>8.3894074697367154E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B113" s="12">
         <v>6.3</v>
       </c>
@@ -6871,13 +7333,13 @@
       </c>
       <c r="O113" s="17">
         <f t="array" ref="O113:Q113">_xll.nnFeedForward($M$16,B113:E113)</f>
-        <v>2.7780294400049876E-4</v>
+        <v>6.0788395984944563E-5</v>
       </c>
       <c r="P113" s="17">
-        <v>0.99160969027099732</v>
+        <v>0.96305833289511689</v>
       </c>
       <c r="Q113" s="17">
-        <v>8.1125067850021885E-3</v>
+        <v>3.6880878708898175E-2</v>
       </c>
       <c r="R113" s="12">
         <f t="shared" si="9"/>
@@ -6891,8 +7353,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U113" s="24">
+        <f>_xll.nnGetCrossEntropyError(F113:H113,O113:Q113)</f>
+        <v>3.7641294880319073E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B114" s="12">
         <v>6.3</v>
       </c>
@@ -6923,13 +7389,13 @@
       </c>
       <c r="O114" s="17">
         <f t="array" ref="O114:Q114">_xll.nnFeedForward($M$16,B114:E114)</f>
-        <v>1.0033925485892297E-5</v>
+        <v>2.257394696639293E-6</v>
       </c>
       <c r="P114" s="17">
-        <v>0.26407369328444097</v>
+        <v>7.0384770429662805E-2</v>
       </c>
       <c r="Q114" s="17">
-        <v>0.7359162727900731</v>
+        <v>0.92961297217564054</v>
       </c>
       <c r="R114" s="12">
         <f t="shared" si="9"/>
@@ -6943,8 +7409,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U114" s="24">
+        <f>_xll.nnGetCrossEntropyError(F114:H114,O114:Q114)</f>
+        <v>7.298693840392792E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B115" s="12">
         <v>6.3</v>
       </c>
@@ -6975,13 +7445,13 @@
       </c>
       <c r="O115" s="17">
         <f t="array" ref="O115:Q115">_xll.nnFeedForward($M$16,B115:E115)</f>
-        <v>4.4185803819131649E-5</v>
+        <v>3.9049250906014476E-5</v>
       </c>
       <c r="P115" s="17">
-        <v>0.98172779620042661</v>
+        <v>0.91095683165638808</v>
       </c>
       <c r="Q115" s="17">
-        <v>1.8228017995754273E-2</v>
+        <v>8.9004119092705822E-2</v>
       </c>
       <c r="R115" s="12">
         <f t="shared" si="9"/>
@@ -6995,8 +7465,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U115" s="24">
+        <f>_xll.nnGetCrossEntropyError(F115:H115,O115:Q115)</f>
+        <v>9.3259768512985133E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B116" s="12">
         <v>4.8</v>
       </c>
@@ -7027,13 +7501,13 @@
       </c>
       <c r="O116" s="17">
         <f t="array" ref="O116:Q116">_xll.nnFeedForward($M$16,B116:E116)</f>
-        <v>0.99936319458489864</v>
+        <v>0.99899809395446093</v>
       </c>
       <c r="P116" s="17">
-        <v>6.3330816368501516E-4</v>
+        <v>9.9889377754886063E-4</v>
       </c>
       <c r="Q116" s="17">
-        <v>3.497251416229844E-6</v>
+        <v>3.0122679903270539E-6</v>
       </c>
       <c r="R116" s="12">
         <f t="shared" si="9"/>
@@ -7047,8 +7521,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U116" s="24">
+        <f>_xll.nnGetCrossEntropyError(F116:H116,O116:Q116)</f>
+        <v>1.0024082888962411E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B117" s="12">
         <v>7</v>
       </c>
@@ -7079,13 +7557,13 @@
       </c>
       <c r="O117" s="17">
         <f t="array" ref="O117:Q117">_xll.nnFeedForward($M$16,B117:E117)</f>
-        <v>3.215138471429137E-4</v>
+        <v>3.5493040819205198E-4</v>
       </c>
       <c r="P117" s="17">
-        <v>0.99637873078247485</v>
+        <v>0.9984568343013176</v>
       </c>
       <c r="Q117" s="17">
-        <v>3.2997553703822615E-3</v>
+        <v>1.1882352904902934E-3</v>
       </c>
       <c r="R117" s="12">
         <f t="shared" si="9"/>
@@ -7099,8 +7577,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U117" s="24">
+        <f>_xll.nnGetCrossEntropyError(F117:H117,O117:Q117)</f>
+        <v>1.5443576052332178E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B118" s="12">
         <v>5.4</v>
       </c>
@@ -7131,13 +7613,13 @@
       </c>
       <c r="O118" s="17">
         <f t="array" ref="O118:Q118">_xll.nnFeedForward($M$16,B118:E118)</f>
-        <v>0.9994455908090365</v>
+        <v>0.99911452447210503</v>
       </c>
       <c r="P118" s="17">
-        <v>5.5125573089315997E-4</v>
+        <v>8.8272073922276604E-4</v>
       </c>
       <c r="Q118" s="17">
-        <v>3.1534600703217842E-6</v>
+        <v>2.7547886722391236E-6</v>
       </c>
       <c r="R118" s="12">
         <f t="shared" si="9"/>
@@ -7151,8 +7633,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U118" s="24">
+        <f>_xll.nnGetCrossEntropyError(F118:H118,O118:Q118)</f>
+        <v>8.8586779292804455E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B119" s="12">
         <v>7.2</v>
       </c>
@@ -7183,13 +7669,13 @@
       </c>
       <c r="O119" s="17">
         <f t="array" ref="O119:Q119">_xll.nnFeedForward($M$16,B119:E119)</f>
-        <v>4.5772073209809637E-7</v>
+        <v>3.3952656927622323E-7</v>
       </c>
       <c r="P119" s="17">
-        <v>8.6419972788137605E-3</v>
+        <v>3.8686980967407515E-3</v>
       </c>
       <c r="Q119" s="17">
-        <v>0.99135754500045414</v>
+        <v>0.99613096237668997</v>
       </c>
       <c r="R119" s="12">
         <f t="shared" si="9"/>
@@ -7203,8 +7689,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U119" s="24">
+        <f>_xll.nnGetCrossEntropyError(F119:H119,O119:Q119)</f>
+        <v>3.8765417113615767E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B120" s="12">
         <v>5.8</v>
       </c>
@@ -7235,13 +7725,13 @@
       </c>
       <c r="O120" s="17">
         <f t="array" ref="O120:Q120">_xll.nnFeedForward($M$16,B120:E120)</f>
-        <v>4.9416920021027566E-7</v>
+        <v>3.5490592711670128E-7</v>
       </c>
       <c r="P120" s="17">
-        <v>9.4391589853590127E-3</v>
+        <v>4.0035727486559753E-3</v>
       </c>
       <c r="Q120" s="17">
-        <v>0.99056034684544081</v>
+        <v>0.99599607234541687</v>
       </c>
       <c r="R120" s="12">
         <f t="shared" si="9"/>
@@ -7255,8 +7745,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U120" s="24">
+        <f>_xll.nnGetCrossEntropyError(F120:H120,O120:Q120)</f>
+        <v>4.0119648336104652E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B121" s="12">
         <v>6</v>
       </c>
@@ -7287,13 +7781,13 @@
       </c>
       <c r="O121" s="17">
         <f t="array" ref="O121:Q121">_xll.nnFeedForward($M$16,B121:E121)</f>
-        <v>9.7968420899257101E-7</v>
+        <v>5.0160315421491163E-7</v>
       </c>
       <c r="P121" s="17">
-        <v>2.5477143653545611E-2</v>
+        <v>6.5240648215129111E-3</v>
       </c>
       <c r="Q121" s="17">
-        <v>0.97452187666224543</v>
+        <v>0.99347543357533286</v>
       </c>
       <c r="R121" s="12">
         <f t="shared" si="9"/>
@@ -7307,8 +7801,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U121" s="24">
+        <f>_xll.nnGetCrossEntropyError(F121:H121,O121:Q121)</f>
+        <v>6.5459444471361716E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B122" s="12">
         <v>5.0999999999999996</v>
       </c>
@@ -7339,13 +7837,13 @@
       </c>
       <c r="O122" s="17">
         <f t="array" ref="O122:Q122">_xll.nnFeedForward($M$16,B122:E122)</f>
-        <v>0.99945595720394953</v>
+        <v>0.99912876026547337</v>
       </c>
       <c r="P122" s="17">
-        <v>5.4093589861001711E-4</v>
+        <v>8.6851706015220978E-4</v>
       </c>
       <c r="Q122" s="17">
-        <v>3.1068974404162818E-6</v>
+        <v>2.7226743744860218E-6</v>
       </c>
       <c r="R122" s="12">
         <f t="shared" si="9"/>
@@ -7359,8 +7857,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U122" s="24">
+        <f>_xll.nnGetCrossEntropyError(F122:H122,O122:Q122)</f>
+        <v>8.7161948444897466E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B123" s="12">
         <v>5.5</v>
       </c>
@@ -7391,13 +7893,13 @@
       </c>
       <c r="O123" s="17">
         <f t="array" ref="O123:Q123">_xll.nnFeedForward($M$16,B123:E123)</f>
-        <v>2.9806831966750109E-4</v>
+        <v>3.5515174314252544E-4</v>
       </c>
       <c r="P123" s="17">
-        <v>0.99611080953459608</v>
+        <v>0.99828495837663178</v>
       </c>
       <c r="Q123" s="17">
-        <v>3.5911221457363843E-3</v>
+        <v>1.3598898802257594E-3</v>
       </c>
       <c r="R123" s="12">
         <f t="shared" si="9"/>
@@ -7411,8 +7913,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U123" s="24">
+        <f>_xll.nnGetCrossEntropyError(F123:H123,O123:Q123)</f>
+        <v>1.7165139909417627E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B124" s="12">
         <v>7.7</v>
       </c>
@@ -7443,13 +7949,13 @@
       </c>
       <c r="O124" s="17">
         <f t="array" ref="O124:Q124">_xll.nnFeedForward($M$16,B124:E124)</f>
-        <v>4.0912186483217873E-7</v>
+        <v>3.3516193236031332E-7</v>
       </c>
       <c r="P124" s="17">
-        <v>7.5285224660561383E-3</v>
+        <v>3.8296506217176136E-3</v>
       </c>
       <c r="Q124" s="17">
-        <v>0.99247106841207899</v>
+        <v>0.99617001421634999</v>
       </c>
       <c r="R124" s="12">
         <f t="shared" si="9"/>
@@ -7463,8 +7969,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U124" s="24">
+        <f>_xll.nnGetCrossEntropyError(F124:H124,O124:Q124)</f>
+        <v>3.8373389602473318E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B125" s="12">
         <v>5.8</v>
       </c>
@@ -7495,13 +8005,13 @@
       </c>
       <c r="O125" s="17">
         <f t="array" ref="O125:Q125">_xll.nnFeedForward($M$16,B125:E125)</f>
-        <v>2.9721050320133564E-4</v>
+        <v>3.029521063410365E-4</v>
       </c>
       <c r="P125" s="17">
-        <v>0.99610035375241335</v>
+        <v>0.99817017678939768</v>
       </c>
       <c r="Q125" s="17">
-        <v>3.6024357443854202E-3</v>
+        <v>1.5268711042612931E-3</v>
       </c>
       <c r="R125" s="12">
         <f t="shared" si="9"/>
@@ -7515,8 +8025,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U125" s="24">
+        <f>_xll.nnGetCrossEntropyError(F125:H125,O125:Q125)</f>
+        <v>1.8314993821371668E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B126" s="12">
         <v>4.9000000000000004</v>
       </c>
@@ -7547,13 +8061,13 @@
       </c>
       <c r="O126" s="17">
         <f t="array" ref="O126:Q126">_xll.nnFeedForward($M$16,B126:E126)</f>
-        <v>0.9993985980131016</v>
+        <v>0.99904693819591284</v>
       </c>
       <c r="P126" s="17">
-        <v>5.9805590833224569E-4</v>
+        <v>9.5015658567720374E-4</v>
       </c>
       <c r="Q126" s="17">
-        <v>3.3460785662458543E-6</v>
+        <v>2.9052184099919856E-6</v>
       </c>
       <c r="R126" s="12">
         <f t="shared" si="9"/>
@@ -7567,8 +8081,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U126" s="24">
+        <f>_xll.nnGetCrossEntropyError(F126:H126,O126:Q126)</f>
+        <v>9.5351625625865011E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B127" s="12">
         <v>5.2</v>
       </c>
@@ -7599,13 +8117,13 @@
       </c>
       <c r="O127" s="17">
         <f t="array" ref="O127:Q127">_xll.nnFeedForward($M$16,B127:E127)</f>
-        <v>0.99947286898679455</v>
+        <v>0.99915199680535371</v>
       </c>
       <c r="P127" s="17">
-        <v>5.240962471797485E-4</v>
+        <v>8.4533321998914721E-4</v>
       </c>
       <c r="Q127" s="17">
-        <v>3.0347660257427357E-6</v>
+        <v>2.6699746571436874E-6</v>
       </c>
       <c r="R127" s="12">
         <f t="shared" si="9"/>
@@ -7619,8 +8137,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U127" s="24">
+        <f>_xll.nnGetCrossEntropyError(F127:H127,O127:Q127)</f>
+        <v>8.4836295275374566E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B128" s="12">
         <v>6.3</v>
       </c>
@@ -7651,13 +8173,13 @@
       </c>
       <c r="O128" s="17">
         <f t="array" ref="O128:Q128">_xll.nnFeedForward($M$16,B128:E128)</f>
-        <v>2.2950971921470176E-6</v>
+        <v>8.9409844251189526E-7</v>
       </c>
       <c r="P128" s="17">
-        <v>6.2608135660006017E-2</v>
+        <v>1.5817598374104607E-2</v>
       </c>
       <c r="Q128" s="17">
-        <v>0.93738956924280181</v>
+        <v>0.98418150752745281</v>
       </c>
       <c r="R128" s="12">
         <f t="shared" si="9"/>
@@ -7671,8 +8193,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U128" s="24">
+        <f>_xll.nnGetCrossEntropyError(F128:H128,O128:Q128)</f>
+        <v>1.594494007096647E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B129" s="12">
         <v>6.4</v>
       </c>
@@ -7703,13 +8229,13 @@
       </c>
       <c r="O129" s="17">
         <f t="array" ref="O129:Q129">_xll.nnFeedForward($M$16,B129:E129)</f>
-        <v>4.2168054962604913E-7</v>
+        <v>3.3997145781613142E-7</v>
       </c>
       <c r="P129" s="17">
-        <v>7.8018004866607701E-3</v>
+        <v>3.8629621237305086E-3</v>
       </c>
       <c r="Q129" s="17">
-        <v>0.99219777783278973</v>
+        <v>0.99613669790481163</v>
       </c>
       <c r="R129" s="12">
         <f t="shared" si="9"/>
@@ -7723,8 +8249,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U129" s="24">
+        <f>_xll.nnGetCrossEntropyError(F129:H129,O129:Q129)</f>
+        <v>3.8707839226507267E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B130" s="12">
         <v>5.7</v>
       </c>
@@ -7755,13 +8285,13 @@
       </c>
       <c r="O130" s="17">
         <f t="array" ref="O130:Q130">_xll.nnFeedForward($M$16,B130:E130)</f>
-        <v>1.5959043686065519E-4</v>
+        <v>4.4700970368998468E-5</v>
       </c>
       <c r="P130" s="17">
-        <v>0.98243910172240101</v>
+        <v>0.88107451666717052</v>
       </c>
       <c r="Q130" s="17">
-        <v>1.7401307840738393E-2</v>
+        <v>0.11888078236246043</v>
       </c>
       <c r="R130" s="12">
         <f t="shared" si="9"/>
@@ -7775,8 +8305,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U130" s="24">
+        <f>_xll.nnGetCrossEntropyError(F130:H130,O130:Q130)</f>
+        <v>0.12661307470774302</v>
+      </c>
+    </row>
+    <row r="131" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B131" s="12">
         <v>5.8</v>
       </c>
@@ -7807,13 +8341,13 @@
       </c>
       <c r="O131" s="17">
         <f t="array" ref="O131:Q131">_xll.nnFeedForward($M$16,B131:E131)</f>
-        <v>4.9416920021027566E-7</v>
+        <v>3.5490592711670128E-7</v>
       </c>
       <c r="P131" s="17">
-        <v>9.4391589853590127E-3</v>
+        <v>4.0035727486559753E-3</v>
       </c>
       <c r="Q131" s="17">
-        <v>0.99056034684544081</v>
+        <v>0.99599607234541687</v>
       </c>
       <c r="R131" s="12">
         <f t="shared" si="9"/>
@@ -7827,8 +8361,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U131" s="24">
+        <f>_xll.nnGetCrossEntropyError(F131:H131,O131:Q131)</f>
+        <v>4.0119648336104652E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B132" s="12">
         <v>5.0999999999999996</v>
       </c>
@@ -7859,13 +8397,13 @@
       </c>
       <c r="O132" s="17">
         <f t="array" ref="O132:Q132">_xll.nnFeedForward($M$16,B132:E132)</f>
-        <v>0.9992191487018981</v>
+        <v>0.99881875607951054</v>
       </c>
       <c r="P132" s="17">
-        <v>7.7677446622268344E-4</v>
+        <v>1.1778507441906028E-3</v>
       </c>
       <c r="Q132" s="17">
-        <v>4.0768318793571038E-6</v>
+        <v>3.3931762989198619E-6</v>
       </c>
       <c r="R132" s="12">
         <f t="shared" si="9"/>
@@ -7879,8 +8417,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U132" s="24">
+        <f>_xll.nnGetCrossEntropyError(F132:H132,O132:Q132)</f>
+        <v>1.1819421389877042E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B133" s="12">
         <v>5.0999999999999996</v>
       </c>
@@ -7911,13 +8453,13 @@
       </c>
       <c r="O133" s="17">
         <f t="array" ref="O133:Q133">_xll.nnFeedForward($M$16,B133:E133)</f>
-        <v>1.3363900602204729E-3</v>
+        <v>4.2400953676897581E-3</v>
       </c>
       <c r="P133" s="17">
-        <v>0.99708015939570971</v>
+        <v>0.99556504462836359</v>
       </c>
       <c r="Q133" s="17">
-        <v>1.5834505440698932E-3</v>
+        <v>1.9486000394657434E-4</v>
       </c>
       <c r="R133" s="12">
         <f t="shared" si="9"/>
@@ -7931,8 +8473,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U133" s="24">
+        <f>_xll.nnGetCrossEntropyError(F133:H133,O133:Q133)</f>
+        <v>4.4448189600638987E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B134" s="12">
         <v>6.3</v>
       </c>
@@ -7963,13 +8509,13 @@
       </c>
       <c r="O134" s="17">
         <f t="array" ref="O134:Q134">_xll.nnFeedForward($M$16,B134:E134)</f>
-        <v>9.237709703622381E-6</v>
+        <v>2.6306712217053643E-6</v>
       </c>
       <c r="P134" s="17">
-        <v>0.33887612234168268</v>
+        <v>9.547064311899045E-2</v>
       </c>
       <c r="Q134" s="17">
-        <v>0.66111463994861375</v>
+        <v>0.9045267262097878</v>
       </c>
       <c r="R134" s="12">
         <f t="shared" si="9"/>
@@ -7983,8 +8529,12 @@
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U134" s="24">
+        <f>_xll.nnGetCrossEntropyError(F134:H134,O134:Q134)</f>
+        <v>2.3489364806484883</v>
+      </c>
+    </row>
+    <row r="135" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B135" s="12">
         <v>6</v>
       </c>
@@ -8015,13 +8565,13 @@
       </c>
       <c r="O135" s="17">
         <f t="array" ref="O135:Q135">_xll.nnFeedForward($M$16,B135:E135)</f>
-        <v>1.4732092848220829E-4</v>
+        <v>3.7095946609464191E-5</v>
       </c>
       <c r="P135" s="17">
-        <v>0.98234067194112817</v>
+        <v>0.86445841178453842</v>
       </c>
       <c r="Q135" s="17">
-        <v>1.7512007130389657E-2</v>
+        <v>0.13550449226885206</v>
       </c>
       <c r="R135" s="12">
         <f t="shared" si="9"/>
@@ -8035,8 +8585,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U135" s="24">
+        <f>_xll.nnGetCrossEntropyError(F135:H135,O135:Q135)</f>
+        <v>0.14565208168508328</v>
+      </c>
+    </row>
+    <row r="136" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B136" s="12">
         <v>5</v>
       </c>
@@ -8067,13 +8621,13 @@
       </c>
       <c r="O136" s="17">
         <f t="array" ref="O136:Q136">_xll.nnFeedForward($M$16,B136:E136)</f>
-        <v>0.9994619809126124</v>
+        <v>0.99913601795473073</v>
       </c>
       <c r="P136" s="17">
-        <v>5.3493734683132622E-4</v>
+        <v>8.6127577626349651E-4</v>
       </c>
       <c r="Q136" s="17">
-        <v>3.0817405562302505E-6</v>
+        <v>2.7062690057009421E-6</v>
       </c>
       <c r="R136" s="12">
         <f t="shared" si="9"/>
@@ -8087,8 +8641,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U136" s="24">
+        <f>_xll.nnGetCrossEntropyError(F136:H136,O136:Q136)</f>
+        <v>8.6435549287339154E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B137" s="12">
         <v>4.4000000000000004</v>
       </c>
@@ -8119,13 +8677,13 @@
       </c>
       <c r="O137" s="17">
         <f t="array" ref="O137:Q137">_xll.nnFeedForward($M$16,B137:E137)</f>
-        <v>0.99940271634605815</v>
+        <v>0.99905384725560242</v>
       </c>
       <c r="P137" s="17">
-        <v>5.939515024557581E-4</v>
+        <v>9.4326262371069523E-4</v>
       </c>
       <c r="Q137" s="17">
-        <v>3.3321514860804788E-6</v>
+        <v>2.8901206869267319E-6</v>
       </c>
       <c r="R137" s="12">
         <f t="shared" si="9"/>
@@ -8139,8 +8697,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U137" s="24">
+        <f>_xll.nnGetCrossEntropyError(F137:H137,O137:Q137)</f>
+        <v>9.4660062943950315E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B138" s="12">
         <v>5.6</v>
       </c>
@@ -8171,13 +8733,13 @@
       </c>
       <c r="O138" s="17">
         <f t="array" ref="O138:Q138">_xll.nnFeedForward($M$16,B138:E138)</f>
-        <v>5.9531049373906606E-4</v>
+        <v>1.5657219951140194E-3</v>
       </c>
       <c r="P138" s="17">
-        <v>0.99711686205077976</v>
+        <v>0.99811185301634509</v>
       </c>
       <c r="Q138" s="17">
-        <v>2.2878274554811993E-3</v>
+        <v>3.2242498854092737E-4</v>
       </c>
       <c r="R138" s="12">
         <f t="shared" si="9"/>
@@ -8191,8 +8753,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U138" s="24">
+        <f>_xll.nnGetCrossEntropyError(F138:H138,O138:Q138)</f>
+        <v>1.8899317801634751E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B139" s="12">
         <v>4.9000000000000004</v>
       </c>
@@ -8223,13 +8789,13 @@
       </c>
       <c r="O139" s="17">
         <f t="array" ref="O139:Q139">_xll.nnFeedForward($M$16,B139:E139)</f>
-        <v>6.451442419637502E-4</v>
+        <v>1.4747917919977545E-3</v>
       </c>
       <c r="P139" s="17">
-        <v>0.99720087272606583</v>
+        <v>0.99817128405874456</v>
       </c>
       <c r="Q139" s="17">
-        <v>2.1539830319704523E-3</v>
+        <v>3.5392414925780071E-4</v>
       </c>
       <c r="R139" s="12">
         <f t="shared" si="9"/>
@@ -8243,8 +8809,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U139" s="24">
+        <f>_xll.nnGetCrossEntropyError(F139:H139,O139:Q139)</f>
+        <v>1.8303900835841948E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B140" s="12">
         <v>5.3</v>
       </c>
@@ -8275,13 +8845,13 @@
       </c>
       <c r="O140" s="17">
         <f t="array" ref="O140:Q140">_xll.nnFeedForward($M$16,B140:E140)</f>
-        <v>0.99949371549151833</v>
+        <v>0.9991806643441955</v>
       </c>
       <c r="P140" s="17">
-        <v>5.033394584176683E-4</v>
+        <v>8.1673124804791913E-4</v>
       </c>
       <c r="Q140" s="17">
-        <v>2.9450500639853286E-6</v>
+        <v>2.6044077564984897E-6</v>
       </c>
       <c r="R140" s="12">
         <f t="shared" si="9"/>
@@ -8295,8 +8865,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U140" s="24">
+        <f>_xll.nnGetCrossEntropyError(F140:H140,O140:Q140)</f>
+        <v>8.1967149471866329E-4</v>
+      </c>
+    </row>
+    <row r="141" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B141" s="12">
         <v>6.7</v>
       </c>
@@ -8327,13 +8901,13 @@
       </c>
       <c r="O141" s="17">
         <f t="array" ref="O141:Q141">_xll.nnFeedForward($M$16,B141:E141)</f>
-        <v>7.2785748033172274E-7</v>
+        <v>3.7513285812805766E-7</v>
       </c>
       <c r="P141" s="17">
-        <v>1.659566324672886E-2</v>
+        <v>4.3111830172806271E-3</v>
       </c>
       <c r="Q141" s="17">
-        <v>0.98340360889579082</v>
+        <v>0.99568844184986127</v>
       </c>
       <c r="R141" s="12">
         <f t="shared" si="9"/>
@@ -8347,8 +8921,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U141" s="24">
+        <f>_xll.nnGetCrossEntropyError(F141:H141,O141:Q141)</f>
+        <v>4.320879720289981E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B142" s="12">
         <v>5</v>
       </c>
@@ -8379,13 +8957,13 @@
       </c>
       <c r="O142" s="17">
         <f t="array" ref="O142:Q142">_xll.nnFeedForward($M$16,B142:E142)</f>
-        <v>0.99948816751605141</v>
+        <v>0.9991707170744879</v>
       </c>
       <c r="P142" s="17">
-        <v>5.0886251068229691E-4</v>
+        <v>8.266556771119579E-4</v>
       </c>
       <c r="Q142" s="17">
-        <v>2.9699732662568667E-6</v>
+        <v>2.6272484002138879E-6</v>
       </c>
       <c r="R142" s="12">
         <f t="shared" si="9"/>
@@ -8399,8 +8977,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U142" s="24">
+        <f>_xll.nnGetCrossEntropyError(F142:H142,O142:Q142)</f>
+        <v>8.296269708177866E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B143" s="12">
         <v>6.5</v>
       </c>
@@ -8431,13 +9013,13 @@
       </c>
       <c r="O143" s="17">
         <f t="array" ref="O143:Q143">_xll.nnFeedForward($M$16,B143:E143)</f>
-        <v>3.3231793843806523E-6</v>
+        <v>8.8507980965836856E-7</v>
       </c>
       <c r="P143" s="17">
-        <v>6.4851285316403481E-2</v>
+        <v>1.4652408121916771E-2</v>
       </c>
       <c r="Q143" s="17">
-        <v>0.93514539150421205</v>
+        <v>0.98534670679827352</v>
       </c>
       <c r="R143" s="12">
         <f t="shared" si="9"/>
@@ -8451,8 +9033,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U143" s="24">
+        <f>_xll.nnGetCrossEntropyError(F143:H143,O143:Q143)</f>
+        <v>1.4761713145565914E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B144" s="12">
         <v>5.6</v>
       </c>
@@ -8483,13 +9069,13 @@
       </c>
       <c r="O144" s="17">
         <f t="array" ref="O144:Q144">_xll.nnFeedForward($M$16,B144:E144)</f>
-        <v>3.2099911602253412E-4</v>
+        <v>3.8552490348958414E-4</v>
       </c>
       <c r="P144" s="17">
-        <v>0.99629038382998791</v>
+        <v>0.99840962090789809</v>
       </c>
       <c r="Q144" s="17">
-        <v>3.3886170539894549E-3</v>
+        <v>1.2048541886122779E-3</v>
       </c>
       <c r="R144" s="12">
         <f t="shared" si="9"/>
@@ -8503,8 +9089,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U144" s="24">
+        <f>_xll.nnGetCrossEntropyError(F144:H144,O144:Q144)</f>
+        <v>1.5916450873832053E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B145" s="12">
         <v>5.6</v>
       </c>
@@ -8535,13 +9125,13 @@
       </c>
       <c r="O145" s="17">
         <f t="array" ref="O145:Q145">_xll.nnFeedForward($M$16,B145:E145)</f>
-        <v>5.2847087427226499E-7</v>
+        <v>3.573019708661868E-7</v>
       </c>
       <c r="P145" s="17">
-        <v>9.9051512242844149E-3</v>
+        <v>4.0206079453856758E-3</v>
       </c>
       <c r="Q145" s="17">
-        <v>0.99009432030484135</v>
+        <v>0.99597903475264338</v>
       </c>
       <c r="R145" s="12">
         <f t="shared" si="9"/>
@@ -8555,8 +9145,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U145" s="24">
+        <f>_xll.nnGetCrossEntropyError(F145:H145,O145:Q145)</f>
+        <v>4.029071064218669E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B146" s="12">
         <v>5.4</v>
       </c>
@@ -8587,13 +9181,13 @@
       </c>
       <c r="O146" s="17">
         <f t="array" ref="O146:Q146">_xll.nnFeedForward($M$16,B146:E146)</f>
-        <v>0.99940598562218808</v>
+        <v>0.99906080524689844</v>
       </c>
       <c r="P146" s="17">
-        <v>5.906988841146816E-4</v>
+        <v>9.3632019253407119E-4</v>
       </c>
       <c r="Q146" s="17">
-        <v>3.3154936973036505E-6</v>
+        <v>2.8745605675706738E-6</v>
       </c>
       <c r="R146" s="12">
         <f t="shared" si="9"/>
@@ -8607,8 +9201,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U146" s="24">
+        <f>_xll.nnGetCrossEntropyError(F146:H146,O146:Q146)</f>
+        <v>9.3963607283877645E-4</v>
+      </c>
+    </row>
+    <row r="147" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B147" s="12">
         <v>5.9</v>
       </c>
@@ -8639,13 +9237,13 @@
       </c>
       <c r="O147" s="17">
         <f t="array" ref="O147:Q147">_xll.nnFeedForward($M$16,B147:E147)</f>
-        <v>1.4364614540843832E-6</v>
+        <v>4.7367140523654458E-7</v>
       </c>
       <c r="P147" s="17">
-        <v>3.1280119440175135E-2</v>
+        <v>5.7094489594195445E-3</v>
       </c>
       <c r="Q147" s="17">
-        <v>0.96871844409837082</v>
+        <v>0.9942900773691753</v>
       </c>
       <c r="R147" s="12">
         <f t="shared" si="9"/>
@@ -8659,8 +9257,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U147" s="24">
+        <f>_xll.nnGetCrossEntropyError(F147:H147,O147:Q147)</f>
+        <v>5.7262865599596513E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B148" s="12">
         <v>6.9</v>
       </c>
@@ -8691,13 +9293,13 @@
       </c>
       <c r="O148" s="17">
         <f t="array" ref="O148:Q148">_xll.nnFeedForward($M$16,B148:E148)</f>
-        <v>1.229842975634386E-6</v>
+        <v>4.8524141095862965E-7</v>
       </c>
       <c r="P148" s="17">
-        <v>3.2394307835475152E-2</v>
+        <v>6.2181355943269345E-3</v>
       </c>
       <c r="Q148" s="17">
-        <v>0.96760446232154917</v>
+        <v>0.99378137916426212</v>
       </c>
       <c r="R148" s="12">
         <f t="shared" si="9"/>
@@ -8711,8 +9313,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U148" s="24">
+        <f>_xll.nnGetCrossEntropyError(F148:H148,O148:Q148)</f>
+        <v>6.2380369946266534E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B149" s="12">
         <v>6</v>
       </c>
@@ -8743,13 +9349,13 @@
       </c>
       <c r="O149" s="17">
         <f t="array" ref="O149:Q149">_xll.nnFeedForward($M$16,B149:E149)</f>
-        <v>1.6890799250864606E-4</v>
+        <v>3.3927712461191592E-4</v>
       </c>
       <c r="P149" s="17">
-        <v>0.99466351040992096</v>
+        <v>0.99785170989491856</v>
       </c>
       <c r="Q149" s="17">
-        <v>5.1675815975704273E-3</v>
+        <v>1.8090129804694316E-3</v>
       </c>
       <c r="R149" s="12">
         <f t="shared" si="9"/>
@@ -8763,8 +9369,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U149" s="24">
+        <f>_xll.nnGetCrossEntropyError(F149:H149,O149:Q149)</f>
+        <v>2.1506009904972692E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B150" s="12">
         <v>4.5999999999999996</v>
       </c>
@@ -8795,13 +9405,13 @@
       </c>
       <c r="O150" s="17">
         <f t="array" ref="O150:Q150">_xll.nnFeedForward($M$16,B150:E150)</f>
-        <v>0.99942371777730077</v>
+        <v>0.99908484608615633</v>
       </c>
       <c r="P150" s="17">
-        <v>5.7303877211845641E-4</v>
+        <v>9.1233263544078134E-4</v>
       </c>
       <c r="Q150" s="17">
-        <v>3.2434505806514194E-6</v>
+        <v>2.8212784028321931E-6</v>
       </c>
       <c r="R150" s="12">
         <f t="shared" si="9"/>
@@ -8815,8 +9425,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U150" s="24">
+        <f>_xll.nnGetCrossEntropyError(F150:H150,O150:Q150)</f>
+        <v>9.1557292284467104E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B151" s="12">
         <v>5.0999999999999996</v>
       </c>
@@ -8847,13 +9461,13 @@
       </c>
       <c r="O151" s="17">
         <f t="array" ref="O151:Q151">_xll.nnFeedForward($M$16,B151:E151)</f>
-        <v>0.99948276905846212</v>
+        <v>0.99916750915853447</v>
       </c>
       <c r="P151" s="17">
-        <v>5.1423905637966634E-4</v>
+        <v>8.2985626458265387E-4</v>
       </c>
       <c r="Q151" s="17">
-        <v>2.9918851581464315E-6</v>
+        <v>2.6345768827971583E-6</v>
       </c>
       <c r="R151" s="12">
         <f t="shared" si="9"/>
@@ -8867,8 +9481,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U151" s="24">
+        <f>_xll.nnGetCrossEntropyError(F151:H151,O151:Q151)</f>
+        <v>8.3283755440300799E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B152" s="12">
         <v>6</v>
       </c>
@@ -8899,13 +9517,13 @@
       </c>
       <c r="O152" s="17">
         <f t="array" ref="O152:Q152">_xll.nnFeedForward($M$16,B152:E152)</f>
-        <v>7.0030536708817619E-6</v>
+        <v>1.3542976849091751E-6</v>
       </c>
       <c r="P152" s="17">
-        <v>0.10977078382326264</v>
+        <v>2.5973153864623524E-2</v>
       </c>
       <c r="Q152" s="17">
-        <v>0.89022221312306649</v>
+        <v>0.9740254918376916</v>
       </c>
       <c r="R152" s="12">
         <f t="shared" si="9"/>
@@ -8919,8 +9537,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U152" s="24">
+        <f>_xll.nnGetCrossEntropyError(F152:H152,O152:Q152)</f>
+        <v>2.6317803364132565E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B153" s="12">
         <v>5.5</v>
       </c>
@@ -8951,13 +9573,13 @@
       </c>
       <c r="O153" s="17">
         <f t="array" ref="O153:Q153">_xll.nnFeedForward($M$16,B153:E153)</f>
-        <v>0.99950584517764862</v>
+        <v>0.99919555378450631</v>
       </c>
       <c r="P153" s="17">
-        <v>4.9126197146345644E-4</v>
+        <v>8.0187611024672492E-4</v>
       </c>
       <c r="Q153" s="17">
-        <v>2.8928508878851847E-6</v>
+        <v>2.5701052469965062E-6</v>
       </c>
       <c r="R153" s="12">
         <f t="shared" si="9"/>
@@ -8971,8 +9593,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U153" s="24">
+        <f>_xll.nnGetCrossEntropyError(F153:H153,O153:Q153)</f>
+        <v>8.0476995598335562E-4</v>
+      </c>
+    </row>
+    <row r="154" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B154" s="12">
         <v>5.7</v>
       </c>
@@ -9003,13 +9629,13 @@
       </c>
       <c r="O154" s="17">
         <f t="array" ref="O154:Q154">_xll.nnFeedForward($M$16,B154:E154)</f>
-        <v>0.99947595090433106</v>
+        <v>0.99915762134291453</v>
       </c>
       <c r="P154" s="17">
-        <v>5.2102753969858072E-4</v>
+        <v>8.3972150964189269E-4</v>
       </c>
       <c r="Q154" s="17">
-        <v>3.0215559703110294E-6</v>
+        <v>2.6571474435950468E-6</v>
       </c>
       <c r="R154" s="12">
         <f t="shared" si="9"/>
@@ -9023,8 +9649,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U154" s="24">
+        <f>_xll.nnGetCrossEntropyError(F154:H154,O154:Q154)</f>
+        <v>8.4273365736353689E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B155" s="12">
         <v>6.9</v>
       </c>
@@ -9055,13 +9685,13 @@
       </c>
       <c r="O155" s="17">
         <f t="array" ref="O155:Q155">_xll.nnFeedForward($M$16,B155:E155)</f>
-        <v>1.5543573596437808E-4</v>
+        <v>6.1070304227974731E-5</v>
       </c>
       <c r="P155" s="17">
-        <v>0.9932966676459104</v>
+        <v>0.98392027838718421</v>
       </c>
       <c r="Q155" s="17">
-        <v>6.5478966181253479E-3</v>
+        <v>1.6018651308587924E-2</v>
       </c>
       <c r="R155" s="12">
         <f t="shared" si="9"/>
@@ -9074,6 +9704,10 @@
       <c r="T155" s="17">
         <f t="shared" si="11"/>
         <v>0</v>
+      </c>
+      <c r="U155" s="24">
+        <f>_xll.nnGetCrossEntropyError(F155:H155,O155:Q155)</f>
+        <v>1.6210403111213939E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9085,21 +9719,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>